--- a/TOMATES CHERRY A PARTIR DE PLÁNTULA.xlsx
+++ b/TOMATES CHERRY A PARTIR DE PLÁNTULA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40a4efe78f1d925d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Btoko\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3451" documentId="8_{6C36A81E-50E4-5C43-9B0B-2B7A9AB576BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1282AC86-C6DA-4CB3-A2C2-FCC7E03C69E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC7CEBC-6374-41D2-BAE9-9050941071EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALTURA" sheetId="4" r:id="rId1"/>
@@ -2434,6 +2434,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2441,6 +2450,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2452,37 +2470,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2515,13 +2506,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2544,6 +2535,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2868,21 +2868,21 @@
   <dimension ref="B1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="183" t="s">
@@ -2895,7 +2895,7 @@
       <c r="I2" s="184"/>
       <c r="J2" s="185"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="186" t="s">
@@ -2908,7 +2908,7 @@
       <c r="I3" s="187"/>
       <c r="J3" s="188"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="143" t="s">
         <v>2</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="179" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="180"/>
       <c r="C6" s="102">
         <v>2</v>
@@ -2993,7 +2993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="180"/>
       <c r="C7" s="102">
         <v>3</v>
@@ -3020,7 +3020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="180"/>
       <c r="C8" s="102">
         <v>4</v>
@@ -3047,7 +3047,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="181"/>
       <c r="C9" s="105">
         <v>5</v>
@@ -3074,7 +3074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="179" t="s">
         <v>3</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="180"/>
       <c r="C11" s="102">
         <v>7</v>
@@ -3130,7 +3130,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="180"/>
       <c r="C12" s="102">
         <v>8</v>
@@ -3157,7 +3157,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="180"/>
       <c r="C13" s="102">
         <v>9</v>
@@ -3184,7 +3184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="181"/>
       <c r="C14" s="105">
         <v>10</v>
@@ -3211,7 +3211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="189" t="s">
         <v>4</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="190"/>
       <c r="C16" s="102">
         <v>12</v>
@@ -3267,7 +3267,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="190"/>
       <c r="C17" s="102">
         <v>13</v>
@@ -3294,7 +3294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="190"/>
       <c r="C18" s="102">
         <v>14</v>
@@ -3321,7 +3321,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="190"/>
       <c r="C19" s="105">
         <v>15</v>
@@ -3348,7 +3348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="179" t="s">
         <v>5</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="180"/>
       <c r="C21" s="102">
         <v>17</v>
@@ -3404,7 +3404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="180"/>
       <c r="C22" s="102">
         <v>18</v>
@@ -3431,7 +3431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="180"/>
       <c r="C23" s="102">
         <v>19</v>
@@ -3458,7 +3458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="181"/>
       <c r="C24" s="105">
         <v>20</v>
@@ -3485,7 +3485,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="179" t="s">
         <v>37</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="180"/>
       <c r="C26" s="110">
         <v>22</v>
@@ -3533,7 +3533,7 @@
       <c r="I26" s="46"/>
       <c r="J26" s="121"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="180"/>
       <c r="C27" s="102">
         <v>23</v>
@@ -3560,7 +3560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="180"/>
       <c r="C28" s="102">
         <v>24</v>
@@ -3587,7 +3587,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="181"/>
       <c r="C29" s="105">
         <v>25</v>
@@ -3614,7 +3614,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="179" t="s">
         <v>8</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="180"/>
       <c r="C31" s="102">
         <v>27</v>
@@ -3670,7 +3670,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="180"/>
       <c r="C32" s="102">
         <v>28</v>
@@ -3697,7 +3697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="180"/>
       <c r="C33" s="102">
         <v>29</v>
@@ -3724,7 +3724,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="181"/>
       <c r="C34" s="105">
         <v>30</v>
@@ -3751,7 +3751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="179" t="s">
         <v>46</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="180"/>
       <c r="C36" s="102">
         <v>32</v>
@@ -3807,7 +3807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="180"/>
       <c r="C37" s="102">
         <v>33</v>
@@ -3834,7 +3834,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="180"/>
       <c r="C38" s="102">
         <v>34</v>
@@ -3861,7 +3861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="181"/>
       <c r="C39" s="105">
         <v>35</v>
@@ -3888,7 +3888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="179" t="s">
         <v>47</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="180"/>
       <c r="C41" s="102">
         <v>37</v>
@@ -3944,7 +3944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="180"/>
       <c r="C42" s="102">
         <v>38</v>
@@ -3971,7 +3971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="180"/>
       <c r="C43" s="102">
         <v>39</v>
@@ -3998,7 +3998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="182"/>
       <c r="C44" s="103">
         <v>40</v>
@@ -4025,7 +4025,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H45" s="4"/>
     </row>
   </sheetData>
@@ -4053,14 +4053,14 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="183" t="s">
@@ -4072,7 +4072,7 @@
       <c r="H2" s="184"/>
       <c r="I2" s="185"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="186" t="s">
@@ -4084,7 +4084,7 @@
       <c r="H3" s="187"/>
       <c r="I3" s="188"/>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="143" t="s">
         <v>2</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="179" t="s">
         <v>7</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="H5" s="164"/>
       <c r="I5" s="166"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="180"/>
       <c r="C6" s="158">
         <v>2</v>
@@ -4152,7 +4152,7 @@
       <c r="H6" s="46"/>
       <c r="I6" s="121"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="180"/>
       <c r="C7" s="158">
         <v>3</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="I7" s="121"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="180"/>
       <c r="C8" s="158">
         <v>4</v>
@@ -4194,7 +4194,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="121"/>
     </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="181"/>
       <c r="C9" s="159">
         <v>5</v>
@@ -4214,7 +4214,7 @@
       <c r="H9" s="165"/>
       <c r="I9" s="163"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="179" t="s">
         <v>3</v>
       </c>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="I10" s="162"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="180"/>
       <c r="C11" s="158">
         <v>7</v>
@@ -4258,7 +4258,7 @@
       <c r="H11" s="46"/>
       <c r="I11" s="121"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="180"/>
       <c r="C12" s="158">
         <v>8</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="I12" s="121"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="180"/>
       <c r="C13" s="158">
         <v>9</v>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="I13" s="121"/>
     </row>
-    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="181"/>
       <c r="C14" s="159">
         <v>10</v>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I14" s="163"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="189" t="s">
         <v>4</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="I15" s="162"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="190"/>
       <c r="C16" s="93">
         <v>12</v>
@@ -4372,7 +4372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="190"/>
       <c r="C17" s="93">
         <v>13</v>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="I17" s="121"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="190"/>
       <c r="C18" s="93">
         <v>14</v>
@@ -4418,7 +4418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="190"/>
       <c r="C19" s="94">
         <v>15</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="179" t="s">
         <v>5</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="180"/>
       <c r="C21" s="93">
         <v>17</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="180"/>
       <c r="C22" s="93">
         <v>18</v>
@@ -4516,7 +4516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="180"/>
       <c r="C23" s="93">
         <v>19</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="I23" s="121"/>
     </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="181"/>
       <c r="C24" s="94">
         <v>20</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="179" t="s">
         <v>37</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="180"/>
       <c r="C26" s="112">
         <v>22</v>
@@ -4600,7 +4600,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="167"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="180"/>
       <c r="C27" s="93">
         <v>23</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="180"/>
       <c r="C28" s="93">
         <v>24</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="181"/>
       <c r="C29" s="94">
         <v>25</v>
@@ -4672,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="179" t="s">
         <v>8</v>
       </c>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="I30" s="162"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="180"/>
       <c r="C31" s="93">
         <v>27</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="180"/>
       <c r="C32" s="93">
         <v>28</v>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="180"/>
       <c r="C33" s="93">
         <v>29</v>
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="181"/>
       <c r="C34" s="94">
         <v>30</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="179" t="s">
         <v>46</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="180"/>
       <c r="C36" s="93">
         <v>32</v>
@@ -4842,7 +4842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="180"/>
       <c r="C37" s="93">
         <v>33</v>
@@ -4866,7 +4866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="180"/>
       <c r="C38" s="93">
         <v>34</v>
@@ -4890,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="181"/>
       <c r="C39" s="94">
         <v>35</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="179" t="s">
         <v>47</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="180"/>
       <c r="C41" s="93">
         <v>37</v>
@@ -4964,7 +4964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="180"/>
       <c r="C42" s="93">
         <v>38</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="180"/>
       <c r="C43" s="93">
         <v>39</v>
@@ -5012,7 +5012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="182"/>
       <c r="C44" s="126">
         <v>40</v>
@@ -5038,16 +5038,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5061,22 +5061,17 @@
       <selection activeCell="BL312" sqref="BL312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="16361" max="16384" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16361" max="16384" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="204" t="s">
         <v>48</v>
       </c>
@@ -5104,49 +5099,49 @@
       <c r="X2" s="204"/>
       <c r="Y2" s="204"/>
     </row>
-    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
       <c r="E3" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="193"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="196"/>
       <c r="H3" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="192"/>
-      <c r="J3" s="193"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="196"/>
       <c r="K3" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="192"/>
-      <c r="M3" s="193"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="196"/>
       <c r="N3" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="196"/>
       <c r="Q3" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="192"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="205" t="s">
+      <c r="R3" s="195"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
       <c r="W3" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="206"/>
-    </row>
-    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X3" s="195"/>
+      <c r="Y3" s="216"/>
+    </row>
+    <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
         <v>13</v>
       </c>
@@ -5220,7 +5215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="56">
         <v>17.899999999999999</v>
       </c>
@@ -5294,7 +5289,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="58">
         <v>16</v>
       </c>
@@ -5368,7 +5363,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="58">
         <v>16</v>
       </c>
@@ -5442,7 +5437,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="58">
         <v>20.7</v>
       </c>
@@ -5516,7 +5511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="58">
         <v>24.7</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="58">
         <v>24.7</v>
       </c>
@@ -5664,7 +5659,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="58">
         <v>22.6</v>
       </c>
@@ -5738,7 +5733,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="58">
         <v>22.6</v>
       </c>
@@ -5812,7 +5807,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="58">
         <v>25</v>
       </c>
@@ -5886,7 +5881,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="58">
         <v>29.9</v>
       </c>
@@ -5960,7 +5955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="58">
         <v>26.5</v>
       </c>
@@ -6034,7 +6029,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="58">
         <v>24.9</v>
       </c>
@@ -6108,7 +6103,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="58">
         <v>42.8</v>
       </c>
@@ -6182,7 +6177,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="58">
         <v>32.799999999999997</v>
       </c>
@@ -6256,7 +6251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="58">
         <v>33</v>
       </c>
@@ -6330,7 +6325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="58">
         <v>26.7</v>
       </c>
@@ -6404,7 +6399,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="58">
         <v>30.1</v>
       </c>
@@ -6478,7 +6473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="58">
         <v>46.6</v>
       </c>
@@ -6552,7 +6547,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="58">
         <v>38</v>
       </c>
@@ -6626,7 +6621,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="58">
         <v>32.1</v>
       </c>
@@ -6700,7 +6695,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="58">
         <v>38.9</v>
       </c>
@@ -6774,7 +6769,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="58">
         <v>38.9</v>
       </c>
@@ -6848,7 +6843,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="58">
         <v>36.9</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="58">
         <v>32.5</v>
       </c>
@@ -6996,7 +6991,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="58">
         <v>35.700000000000003</v>
       </c>
@@ -7070,7 +7065,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="58">
         <v>35.9</v>
       </c>
@@ -7144,7 +7139,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="58">
         <v>52.9</v>
       </c>
@@ -7216,7 +7211,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="58">
         <v>44.3</v>
       </c>
@@ -7288,7 +7283,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="58">
         <v>35.1</v>
       </c>
@@ -7360,7 +7355,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="58">
         <v>38.9</v>
       </c>
@@ -7430,7 +7425,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="58">
         <v>39.9</v>
       </c>
@@ -7500,7 +7495,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="58">
         <v>20.5</v>
       </c>
@@ -7570,7 +7565,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="58">
         <v>21.1</v>
       </c>
@@ -7640,7 +7635,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="58">
         <v>28.9</v>
       </c>
@@ -7710,7 +7705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="58">
         <v>32.200000000000003</v>
       </c>
@@ -7774,7 +7769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="58">
         <v>30.9</v>
       </c>
@@ -7836,7 +7831,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="58">
         <v>32.700000000000003</v>
       </c>
@@ -7898,7 +7893,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="58">
         <v>37.9</v>
       </c>
@@ -7960,7 +7955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="58">
         <v>26.1</v>
       </c>
@@ -8022,7 +8017,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="58">
         <v>26.2</v>
       </c>
@@ -8082,7 +8077,7 @@
       <c r="X44" s="108"/>
       <c r="Y44" s="59"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="58">
         <v>35.799999999999997</v>
       </c>
@@ -8142,7 +8137,7 @@
       <c r="X45" s="108"/>
       <c r="Y45" s="59"/>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="58">
         <v>35.799999999999997</v>
       </c>
@@ -8200,7 +8195,7 @@
       <c r="X46" s="108"/>
       <c r="Y46" s="59"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="58">
         <v>33.299999999999997</v>
       </c>
@@ -8254,7 +8249,7 @@
       <c r="X47" s="108"/>
       <c r="Y47" s="59"/>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="58">
         <v>28.9</v>
       </c>
@@ -8308,7 +8303,7 @@
       <c r="X48" s="108"/>
       <c r="Y48" s="59"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="58">
         <v>37</v>
       </c>
@@ -8360,7 +8355,7 @@
       <c r="X49" s="108"/>
       <c r="Y49" s="59"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="58">
         <v>30.6</v>
       </c>
@@ -8412,7 +8407,7 @@
       <c r="X50" s="108"/>
       <c r="Y50" s="59"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="58">
         <v>24.3</v>
       </c>
@@ -8460,7 +8455,7 @@
       <c r="X51" s="108"/>
       <c r="Y51" s="59"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="58">
         <v>33.799999999999997</v>
       </c>
@@ -8508,7 +8503,7 @@
       <c r="X52" s="108"/>
       <c r="Y52" s="59"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="58">
         <v>31.6</v>
       </c>
@@ -8550,7 +8545,7 @@
       <c r="X53" s="108"/>
       <c r="Y53" s="59"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="58">
         <v>28.6</v>
       </c>
@@ -8592,7 +8587,7 @@
       <c r="X54" s="108"/>
       <c r="Y54" s="59"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="58">
         <v>40.6</v>
       </c>
@@ -8632,7 +8627,7 @@
       <c r="X55" s="108"/>
       <c r="Y55" s="59"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="58"/>
       <c r="C56" s="108"/>
       <c r="D56" s="45"/>
@@ -8668,7 +8663,7 @@
       <c r="X56" s="108"/>
       <c r="Y56" s="59"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="58"/>
       <c r="C57" s="108"/>
       <c r="D57" s="45"/>
@@ -8702,7 +8697,7 @@
       <c r="X57" s="108"/>
       <c r="Y57" s="59"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="58"/>
       <c r="C58" s="108"/>
       <c r="D58" s="45"/>
@@ -8734,7 +8729,7 @@
       <c r="X58" s="108"/>
       <c r="Y58" s="59"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="58"/>
       <c r="C59" s="108"/>
       <c r="D59" s="45"/>
@@ -8762,7 +8757,7 @@
       <c r="X59" s="108"/>
       <c r="Y59" s="59"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="58"/>
       <c r="C60" s="108"/>
       <c r="D60" s="45"/>
@@ -8790,7 +8785,7 @@
       <c r="X60" s="108"/>
       <c r="Y60" s="59"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="58"/>
       <c r="C61" s="108"/>
       <c r="D61" s="45"/>
@@ -8818,7 +8813,7 @@
       <c r="X61" s="108"/>
       <c r="Y61" s="59"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="58"/>
       <c r="C62" s="108"/>
       <c r="D62" s="45"/>
@@ -8846,7 +8841,7 @@
       <c r="X62" s="108"/>
       <c r="Y62" s="59"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="58"/>
       <c r="C63" s="108"/>
       <c r="D63" s="45"/>
@@ -8874,7 +8869,7 @@
       <c r="X63" s="108"/>
       <c r="Y63" s="59"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="58"/>
       <c r="C64" s="108"/>
       <c r="D64" s="45"/>
@@ -8902,7 +8897,7 @@
       <c r="X64" s="108"/>
       <c r="Y64" s="59"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="58"/>
       <c r="C65" s="108"/>
       <c r="D65" s="45"/>
@@ -8930,7 +8925,7 @@
       <c r="X65" s="108"/>
       <c r="Y65" s="59"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="58"/>
       <c r="C66" s="108"/>
       <c r="D66" s="45"/>
@@ -8958,7 +8953,7 @@
       <c r="X66" s="108"/>
       <c r="Y66" s="59"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="58"/>
       <c r="C67" s="108"/>
       <c r="D67" s="45"/>
@@ -8986,7 +8981,7 @@
       <c r="X67" s="108"/>
       <c r="Y67" s="59"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="58"/>
       <c r="C68" s="108"/>
       <c r="D68" s="45"/>
@@ -9014,7 +9009,7 @@
       <c r="X68" s="108"/>
       <c r="Y68" s="59"/>
     </row>
-    <row r="69" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="60"/>
       <c r="C69" s="61"/>
       <c r="D69" s="62"/>
@@ -9042,12 +9037,12 @@
       <c r="X69" s="61"/>
       <c r="Y69" s="63"/>
     </row>
-    <row r="74" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="207" t="s">
+    <row r="74" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="207"/>
-      <c r="D74" s="207"/>
+      <c r="C74" s="203"/>
+      <c r="D74" s="203"/>
       <c r="E74" s="204"/>
       <c r="F74" s="204"/>
       <c r="G74" s="204"/>
@@ -9057,62 +9052,62 @@
       <c r="K74" s="204"/>
       <c r="L74" s="204"/>
       <c r="M74" s="204"/>
-      <c r="N74" s="207"/>
-      <c r="O74" s="207"/>
-      <c r="P74" s="207"/>
-      <c r="Q74" s="207"/>
-      <c r="R74" s="207"/>
-      <c r="S74" s="207"/>
-      <c r="T74" s="207"/>
-      <c r="U74" s="207"/>
-      <c r="V74" s="207"/>
-      <c r="W74" s="207"/>
-      <c r="X74" s="207"/>
-      <c r="Y74" s="207"/>
-    </row>
-    <row r="75" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="208" t="s">
+      <c r="N74" s="203"/>
+      <c r="O74" s="203"/>
+      <c r="P74" s="203"/>
+      <c r="Q74" s="203"/>
+      <c r="R74" s="203"/>
+      <c r="S74" s="203"/>
+      <c r="T74" s="203"/>
+      <c r="U74" s="203"/>
+      <c r="V74" s="203"/>
+      <c r="W74" s="203"/>
+      <c r="X74" s="203"/>
+      <c r="Y74" s="203"/>
+    </row>
+    <row r="75" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="209"/>
-      <c r="D75" s="210"/>
+      <c r="C75" s="206"/>
+      <c r="D75" s="207"/>
       <c r="E75" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="192"/>
-      <c r="G75" s="193"/>
+      <c r="F75" s="195"/>
+      <c r="G75" s="196"/>
       <c r="H75" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="I75" s="192"/>
-      <c r="J75" s="193"/>
-      <c r="K75" s="211" t="s">
+      <c r="I75" s="195"/>
+      <c r="J75" s="196"/>
+      <c r="K75" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="212"/>
-      <c r="M75" s="213"/>
-      <c r="N75" s="208" t="s">
+      <c r="L75" s="209"/>
+      <c r="M75" s="210"/>
+      <c r="N75" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="O75" s="209"/>
-      <c r="P75" s="214"/>
-      <c r="Q75" s="208" t="s">
+      <c r="O75" s="206"/>
+      <c r="P75" s="211"/>
+      <c r="Q75" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="R75" s="209"/>
-      <c r="S75" s="214"/>
-      <c r="T75" s="215" t="s">
+      <c r="R75" s="206"/>
+      <c r="S75" s="211"/>
+      <c r="T75" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="U75" s="216"/>
-      <c r="V75" s="216"/>
-      <c r="W75" s="208" t="s">
+      <c r="U75" s="213"/>
+      <c r="V75" s="213"/>
+      <c r="W75" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="X75" s="209"/>
-      <c r="Y75" s="217"/>
-    </row>
-    <row r="76" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X75" s="206"/>
+      <c r="Y75" s="214"/>
+    </row>
+    <row r="76" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="70" t="s">
         <v>13</v>
       </c>
@@ -9186,7 +9181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="81">
         <v>17.399999999999999</v>
       </c>
@@ -9260,7 +9255,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="85">
         <v>16.399999999999999</v>
       </c>
@@ -9334,7 +9329,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="85">
         <v>19.600000000000001</v>
       </c>
@@ -9408,7 +9403,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="85">
         <v>19.600000000000001</v>
       </c>
@@ -9482,7 +9477,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="85">
         <v>18.100000000000001</v>
       </c>
@@ -9556,7 +9551,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="85">
         <v>27.3</v>
       </c>
@@ -9630,7 +9625,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="85">
         <v>23.4</v>
       </c>
@@ -9702,7 +9697,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="85">
         <v>23.1</v>
       </c>
@@ -9774,7 +9769,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="85">
         <v>23</v>
       </c>
@@ -9846,7 +9841,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="85">
         <v>25.3</v>
       </c>
@@ -9918,7 +9913,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="85">
         <v>31.8</v>
       </c>
@@ -9990,7 +9985,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="85">
         <v>26.2</v>
       </c>
@@ -10062,7 +10057,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="85">
         <v>26.5</v>
       </c>
@@ -10134,7 +10129,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="85">
         <v>44.6</v>
       </c>
@@ -10206,7 +10201,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="85">
         <v>9.9</v>
       </c>
@@ -10278,7 +10273,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="85">
         <v>7.6</v>
       </c>
@@ -10350,7 +10345,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="85">
         <v>34.6</v>
       </c>
@@ -10422,7 +10417,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="85">
         <v>33.299999999999997</v>
       </c>
@@ -10494,7 +10489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="85">
         <v>30.1</v>
       </c>
@@ -10566,7 +10561,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="85">
         <v>32.4</v>
       </c>
@@ -10638,7 +10633,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="85">
         <v>48.1</v>
       </c>
@@ -10710,7 +10705,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="85">
         <v>42.3</v>
       </c>
@@ -10782,7 +10777,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="85">
         <v>44.8</v>
       </c>
@@ -10854,7 +10849,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="85">
         <v>40.5</v>
       </c>
@@ -10926,7 +10921,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="85">
         <v>10.199999999999999</v>
       </c>
@@ -10998,7 +10993,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="85">
         <v>8.1</v>
       </c>
@@ -11070,7 +11065,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="85">
         <v>48</v>
       </c>
@@ -11142,7 +11137,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="85">
         <v>35.200000000000003</v>
       </c>
@@ -11214,7 +11209,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="85">
         <v>35.799999999999997</v>
       </c>
@@ -11286,7 +11281,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="85">
         <v>43.6</v>
       </c>
@@ -11358,7 +11353,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="85">
         <v>42.3</v>
       </c>
@@ -11430,7 +11425,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="85">
         <v>10.5</v>
       </c>
@@ -11502,7 +11497,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="85">
         <v>8.4</v>
       </c>
@@ -11572,7 +11567,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="85">
         <v>24.7</v>
       </c>
@@ -11642,7 +11637,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="85">
         <v>21.4</v>
       </c>
@@ -11710,7 +11705,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="85">
         <v>38.200000000000003</v>
       </c>
@@ -11778,7 +11773,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="85">
         <v>33.9</v>
       </c>
@@ -11846,7 +11841,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="114" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B114" s="85">
         <v>33.9</v>
       </c>
@@ -11914,7 +11909,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="115" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B115" s="85">
         <v>8.6999999999999993</v>
       </c>
@@ -11982,7 +11977,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="116" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B116" s="85">
         <v>9.1</v>
       </c>
@@ -12050,7 +12045,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="117" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B117" s="85">
         <v>32.700000000000003</v>
       </c>
@@ -12118,7 +12113,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="118" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B118" s="85">
         <v>33.9</v>
       </c>
@@ -12186,7 +12181,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B119" s="85">
         <v>13.4</v>
       </c>
@@ -12250,7 +12245,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B120" s="85">
         <v>15.8</v>
       </c>
@@ -12312,7 +12307,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="121" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B121" s="85">
         <v>40.700000000000003</v>
       </c>
@@ -12374,7 +12369,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="122" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B122" s="85">
         <v>36.299999999999997</v>
       </c>
@@ -12434,7 +12429,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="123" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B123" s="85">
         <v>31.8</v>
       </c>
@@ -12494,7 +12489,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="124" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B124" s="85">
         <v>16.3</v>
       </c>
@@ -12552,7 +12547,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="125" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B125" s="85">
         <v>36.299999999999997</v>
       </c>
@@ -12608,7 +12603,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="126" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B126" s="85">
         <v>31.8</v>
       </c>
@@ -12664,7 +12659,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="127" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B127" s="85">
         <v>16.3</v>
       </c>
@@ -12718,7 +12713,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="128" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B128" s="85">
         <v>13.3</v>
       </c>
@@ -12770,7 +12765,7 @@
       <c r="X128" s="108"/>
       <c r="Y128" s="33"/>
     </row>
-    <row r="129" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B129" s="85">
         <v>39.700000000000003</v>
       </c>
@@ -12820,7 +12815,7 @@
       <c r="X129" s="108"/>
       <c r="Y129" s="33"/>
     </row>
-    <row r="130" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B130" s="85">
         <v>39.700000000000003</v>
       </c>
@@ -12868,7 +12863,7 @@
       <c r="X130" s="108"/>
       <c r="Y130" s="33"/>
     </row>
-    <row r="131" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B131" s="85">
         <v>27</v>
       </c>
@@ -12914,7 +12909,7 @@
       <c r="X131" s="108"/>
       <c r="Y131" s="33"/>
     </row>
-    <row r="132" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B132" s="85">
         <v>28.8</v>
       </c>
@@ -12960,7 +12955,7 @@
       <c r="X132" s="108"/>
       <c r="Y132" s="33"/>
     </row>
-    <row r="133" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B133" s="85">
         <v>47.5</v>
       </c>
@@ -13004,7 +12999,7 @@
       <c r="X133" s="108"/>
       <c r="Y133" s="33"/>
     </row>
-    <row r="134" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B134" s="85">
         <v>31.6</v>
       </c>
@@ -13048,7 +13043,7 @@
       <c r="X134" s="108"/>
       <c r="Y134" s="33"/>
     </row>
-    <row r="135" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B135" s="85">
         <v>35.700000000000003</v>
       </c>
@@ -13092,7 +13087,7 @@
       <c r="X135" s="108"/>
       <c r="Y135" s="33"/>
     </row>
-    <row r="136" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B136" s="85">
         <v>36.799999999999997</v>
       </c>
@@ -13134,7 +13129,7 @@
       <c r="X136" s="108"/>
       <c r="Y136" s="33"/>
     </row>
-    <row r="137" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B137" s="85">
         <v>36.9</v>
       </c>
@@ -13174,7 +13169,7 @@
       <c r="X137" s="108"/>
       <c r="Y137" s="33"/>
     </row>
-    <row r="138" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B138" s="85">
         <v>26.2</v>
       </c>
@@ -13214,7 +13209,7 @@
       <c r="X138" s="108"/>
       <c r="Y138" s="33"/>
     </row>
-    <row r="139" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B139" s="88">
         <v>35.9</v>
       </c>
@@ -13250,7 +13245,7 @@
       <c r="X139" s="23"/>
       <c r="Y139" s="41"/>
     </row>
-    <row r="140" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B140" s="39">
         <v>28.7</v>
       </c>
@@ -13286,7 +13281,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="106"/>
     </row>
-    <row r="141" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B141" s="39">
         <v>32.1</v>
       </c>
@@ -13322,7 +13317,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="106"/>
     </row>
-    <row r="142" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B142" s="39">
         <v>37.9</v>
       </c>
@@ -13358,7 +13353,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="106"/>
     </row>
-    <row r="143" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B143" s="39">
         <v>41.1</v>
       </c>
@@ -13394,7 +13389,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="106"/>
     </row>
-    <row r="144" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B144" s="39">
         <v>20.2</v>
       </c>
@@ -13430,7 +13425,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="106"/>
     </row>
-    <row r="145" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B145" s="39">
         <v>29.5</v>
       </c>
@@ -13464,7 +13459,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="106"/>
     </row>
-    <row r="146" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B146" s="39">
         <v>39.299999999999997</v>
       </c>
@@ -13498,7 +13493,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="106"/>
     </row>
-    <row r="147" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B147" s="39">
         <v>29.7</v>
       </c>
@@ -13532,7 +13527,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="106"/>
     </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B148" s="39">
         <v>29.7</v>
       </c>
@@ -13566,7 +13561,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="106"/>
     </row>
-    <row r="149" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B149" s="39">
         <v>12</v>
       </c>
@@ -13600,7 +13595,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="106"/>
     </row>
-    <row r="150" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B150" s="39">
         <v>10.5</v>
       </c>
@@ -13632,7 +13627,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="106"/>
     </row>
-    <row r="151" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B151" s="39">
         <v>25.1</v>
       </c>
@@ -13664,7 +13659,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="106"/>
     </row>
-    <row r="152" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B152" s="39">
         <v>27.5</v>
       </c>
@@ -13696,7 +13691,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="106"/>
     </row>
-    <row r="153" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B153" s="39">
         <v>37.299999999999997</v>
       </c>
@@ -13728,7 +13723,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="106"/>
     </row>
-    <row r="154" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B154" s="39">
         <v>37.299999999999997</v>
       </c>
@@ -13760,7 +13755,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="106"/>
     </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B155" s="39">
         <v>34.5</v>
       </c>
@@ -13792,7 +13787,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="106"/>
     </row>
-    <row r="156" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B156" s="39">
         <v>14.5</v>
       </c>
@@ -13824,7 +13819,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="106"/>
     </row>
-    <row r="157" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B157" s="39">
         <v>12.9</v>
       </c>
@@ -13856,7 +13851,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="106"/>
     </row>
-    <row r="158" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B158" s="39">
         <v>43.1</v>
       </c>
@@ -13888,7 +13883,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="106"/>
     </row>
-    <row r="159" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B159" s="39">
         <v>32.4</v>
       </c>
@@ -13920,7 +13915,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="106"/>
     </row>
-    <row r="160" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B160" s="39">
         <v>13.3</v>
       </c>
@@ -13952,7 +13947,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="106"/>
     </row>
-    <row r="161" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B161" s="39">
         <v>13.3</v>
       </c>
@@ -13984,7 +13979,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="106"/>
     </row>
-    <row r="162" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B162" s="39">
         <v>40.5</v>
       </c>
@@ -14016,7 +14011,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="106"/>
     </row>
-    <row r="163" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B163" s="39">
         <v>30.5</v>
       </c>
@@ -14046,7 +14041,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="106"/>
     </row>
-    <row r="164" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B164" s="39">
         <v>29.4</v>
       </c>
@@ -14076,7 +14071,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="106"/>
     </row>
-    <row r="165" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B165" s="39">
         <v>11.5</v>
       </c>
@@ -14106,7 +14101,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="106"/>
     </row>
-    <row r="166" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B166" s="39">
         <v>11.5</v>
       </c>
@@ -14134,7 +14129,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="106"/>
     </row>
-    <row r="167" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B167" s="39">
         <v>25.9</v>
       </c>
@@ -14162,7 +14157,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="106"/>
     </row>
-    <row r="168" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B168" s="39">
         <v>28.6</v>
       </c>
@@ -14190,7 +14185,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="106"/>
     </row>
-    <row r="169" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B169" s="39">
         <v>40.299999999999997</v>
       </c>
@@ -14218,7 +14213,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="106"/>
     </row>
-    <row r="170" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B170" s="39">
         <v>21.1</v>
       </c>
@@ -14246,7 +14241,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="106"/>
     </row>
-    <row r="171" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B171" s="39">
         <v>19.8</v>
       </c>
@@ -14274,7 +14269,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="106"/>
     </row>
-    <row r="172" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B172" s="39">
         <v>17.8</v>
       </c>
@@ -14302,7 +14297,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="106"/>
     </row>
-    <row r="173" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="40">
         <v>17.8</v>
       </c>
@@ -14330,78 +14325,78 @@
       <c r="X173" s="6"/>
       <c r="Y173" s="107"/>
     </row>
-    <row r="177" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="178" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B178" s="201" t="s">
+    <row r="177" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="C178" s="202"/>
-      <c r="D178" s="202"/>
-      <c r="E178" s="202"/>
-      <c r="F178" s="202"/>
-      <c r="G178" s="202"/>
-      <c r="H178" s="202"/>
-      <c r="I178" s="202"/>
-      <c r="J178" s="202"/>
-      <c r="K178" s="202"/>
-      <c r="L178" s="202"/>
-      <c r="M178" s="202"/>
-      <c r="N178" s="202"/>
-      <c r="O178" s="202"/>
-      <c r="P178" s="202"/>
-      <c r="Q178" s="202"/>
-      <c r="R178" s="202"/>
-      <c r="S178" s="202"/>
-      <c r="T178" s="202"/>
-      <c r="U178" s="202"/>
-      <c r="V178" s="202"/>
-      <c r="W178" s="202"/>
-      <c r="X178" s="202"/>
-      <c r="Y178" s="203"/>
-    </row>
-    <row r="179" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B179" s="191" t="s">
+      <c r="C178" s="192"/>
+      <c r="D178" s="192"/>
+      <c r="E178" s="192"/>
+      <c r="F178" s="192"/>
+      <c r="G178" s="192"/>
+      <c r="H178" s="192"/>
+      <c r="I178" s="192"/>
+      <c r="J178" s="192"/>
+      <c r="K178" s="192"/>
+      <c r="L178" s="192"/>
+      <c r="M178" s="192"/>
+      <c r="N178" s="192"/>
+      <c r="O178" s="192"/>
+      <c r="P178" s="192"/>
+      <c r="Q178" s="192"/>
+      <c r="R178" s="192"/>
+      <c r="S178" s="192"/>
+      <c r="T178" s="192"/>
+      <c r="U178" s="192"/>
+      <c r="V178" s="192"/>
+      <c r="W178" s="192"/>
+      <c r="X178" s="192"/>
+      <c r="Y178" s="193"/>
+    </row>
+    <row r="179" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="C179" s="192"/>
-      <c r="D179" s="193"/>
+      <c r="C179" s="195"/>
+      <c r="D179" s="196"/>
       <c r="E179" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="F179" s="192"/>
-      <c r="G179" s="193"/>
+      <c r="F179" s="195"/>
+      <c r="G179" s="196"/>
       <c r="H179" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="I179" s="192"/>
-      <c r="J179" s="193"/>
+      <c r="I179" s="195"/>
+      <c r="J179" s="196"/>
       <c r="K179" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="L179" s="192"/>
+      <c r="L179" s="195"/>
       <c r="M179" s="198"/>
       <c r="N179" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="O179" s="192"/>
-      <c r="P179" s="193"/>
-      <c r="Q179" s="191" t="s">
+      <c r="O179" s="195"/>
+      <c r="P179" s="196"/>
+      <c r="Q179" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="R179" s="192"/>
-      <c r="S179" s="193"/>
-      <c r="T179" s="194" t="s">
+      <c r="R179" s="195"/>
+      <c r="S179" s="196"/>
+      <c r="T179" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="U179" s="195"/>
-      <c r="V179" s="195"/>
-      <c r="W179" s="191" t="s">
+      <c r="U179" s="201"/>
+      <c r="V179" s="201"/>
+      <c r="W179" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="X179" s="192"/>
-      <c r="Y179" s="196"/>
-    </row>
-    <row r="180" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X179" s="195"/>
+      <c r="Y179" s="202"/>
+    </row>
+    <row r="180" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="176" t="s">
         <v>13</v>
       </c>
@@ -14475,7 +14470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B181" s="2">
         <v>48.3</v>
       </c>
@@ -14509,7 +14504,7 @@
       <c r="X181" s="22"/>
       <c r="Y181" s="34"/>
     </row>
-    <row r="182" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B182" s="81">
         <v>5.4</v>
       </c>
@@ -14543,7 +14538,7 @@
       <c r="X182" s="108"/>
       <c r="Y182" s="33"/>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B183" s="85">
         <v>7</v>
       </c>
@@ -14577,7 +14572,7 @@
       <c r="X183" s="108"/>
       <c r="Y183" s="33"/>
     </row>
-    <row r="184" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B184" s="85">
         <v>4.9000000000000004</v>
       </c>
@@ -14611,7 +14606,7 @@
       <c r="X184" s="108"/>
       <c r="Y184" s="33"/>
     </row>
-    <row r="185" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B185" s="85">
         <v>42.3</v>
       </c>
@@ -14645,7 +14640,7 @@
       <c r="X185" s="108"/>
       <c r="Y185" s="33"/>
     </row>
-    <row r="186" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B186" s="85">
         <v>8.9</v>
       </c>
@@ -14679,7 +14674,7 @@
       <c r="X186" s="108"/>
       <c r="Y186" s="33"/>
     </row>
-    <row r="187" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B187" s="85">
         <v>8.4</v>
       </c>
@@ -14713,7 +14708,7 @@
       <c r="X187" s="108"/>
       <c r="Y187" s="33"/>
     </row>
-    <row r="188" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B188" s="85">
         <v>37.9</v>
       </c>
@@ -14749,7 +14744,7 @@
       <c r="X188" s="108"/>
       <c r="Y188" s="33"/>
     </row>
-    <row r="189" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B189" s="85">
         <v>43.3</v>
       </c>
@@ -14783,7 +14778,7 @@
       <c r="X189" s="108"/>
       <c r="Y189" s="33"/>
     </row>
-    <row r="190" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B190" s="85">
         <v>6.9</v>
       </c>
@@ -14817,7 +14812,7 @@
       <c r="X190" s="108"/>
       <c r="Y190" s="33"/>
     </row>
-    <row r="191" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B191" s="85"/>
       <c r="C191" s="108">
         <v>27.7</v>
@@ -14849,7 +14844,7 @@
       <c r="X191" s="108"/>
       <c r="Y191" s="33"/>
     </row>
-    <row r="192" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B192" s="85"/>
       <c r="C192" s="108">
         <v>45.8</v>
@@ -14881,7 +14876,7 @@
       <c r="X192" s="108"/>
       <c r="Y192" s="33"/>
     </row>
-    <row r="193" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B193" s="85"/>
       <c r="C193" s="108">
         <v>36.299999999999997</v>
@@ -14913,7 +14908,7 @@
       <c r="X193" s="108"/>
       <c r="Y193" s="33"/>
     </row>
-    <row r="194" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B194" s="85"/>
       <c r="C194" s="108">
         <v>30.2</v>
@@ -14945,7 +14940,7 @@
       <c r="X194" s="108"/>
       <c r="Y194" s="33"/>
     </row>
-    <row r="195" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B195" s="85"/>
       <c r="C195" s="108">
         <v>6.3</v>
@@ -14977,7 +14972,7 @@
       <c r="X195" s="108"/>
       <c r="Y195" s="33"/>
     </row>
-    <row r="196" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B196" s="85"/>
       <c r="C196" s="108">
         <v>5.9</v>
@@ -15009,7 +15004,7 @@
       <c r="X196" s="108"/>
       <c r="Y196" s="33"/>
     </row>
-    <row r="197" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B197" s="85"/>
       <c r="C197" s="108">
         <v>13.5</v>
@@ -15041,7 +15036,7 @@
       <c r="X197" s="108"/>
       <c r="Y197" s="33"/>
     </row>
-    <row r="198" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B198" s="85"/>
       <c r="C198" s="108">
         <v>14</v>
@@ -15073,7 +15068,7 @@
       <c r="X198" s="108"/>
       <c r="Y198" s="33"/>
     </row>
-    <row r="199" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B199" s="85"/>
       <c r="C199" s="108">
         <v>40.5</v>
@@ -15105,7 +15100,7 @@
       <c r="X199" s="108"/>
       <c r="Y199" s="33"/>
     </row>
-    <row r="200" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B200" s="85"/>
       <c r="C200" s="108">
         <v>38.299999999999997</v>
@@ -15137,7 +15132,7 @@
       <c r="X200" s="108"/>
       <c r="Y200" s="33"/>
     </row>
-    <row r="201" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B201" s="85"/>
       <c r="C201" s="108">
         <v>7.4</v>
@@ -15169,7 +15164,7 @@
       <c r="X201" s="108"/>
       <c r="Y201" s="33"/>
     </row>
-    <row r="202" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B202" s="85"/>
       <c r="C202" s="108">
         <v>8.6999999999999993</v>
@@ -15201,7 +15196,7 @@
       <c r="X202" s="108"/>
       <c r="Y202" s="33"/>
     </row>
-    <row r="203" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B203" s="85"/>
       <c r="C203" s="108">
         <v>48</v>
@@ -15233,7 +15228,7 @@
       <c r="X203" s="108"/>
       <c r="Y203" s="33"/>
     </row>
-    <row r="204" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B204" s="85"/>
       <c r="C204" s="108">
         <v>34.9</v>
@@ -15265,7 +15260,7 @@
       <c r="X204" s="108"/>
       <c r="Y204" s="33"/>
     </row>
-    <row r="205" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B205" s="85"/>
       <c r="C205" s="108">
         <v>3.8</v>
@@ -15297,7 +15292,7 @@
       <c r="X205" s="108"/>
       <c r="Y205" s="33"/>
     </row>
-    <row r="206" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B206" s="85"/>
       <c r="C206" s="108">
         <v>14.6</v>
@@ -15329,7 +15324,7 @@
       <c r="X206" s="108"/>
       <c r="Y206" s="33"/>
     </row>
-    <row r="207" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B207" s="85"/>
       <c r="C207" s="108">
         <v>6.9</v>
@@ -15361,7 +15356,7 @@
       <c r="X207" s="108"/>
       <c r="Y207" s="33"/>
     </row>
-    <row r="208" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B208" s="85"/>
       <c r="C208" s="108">
         <v>3.7</v>
@@ -15393,7 +15388,7 @@
       <c r="X208" s="108"/>
       <c r="Y208" s="33"/>
     </row>
-    <row r="209" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B209" s="85"/>
       <c r="C209" s="108">
         <v>15.1</v>
@@ -15425,7 +15420,7 @@
       <c r="X209" s="108"/>
       <c r="Y209" s="33"/>
     </row>
-    <row r="210" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B210" s="85"/>
       <c r="C210" s="108">
         <v>34.4</v>
@@ -15457,7 +15452,7 @@
       <c r="X210" s="108"/>
       <c r="Y210" s="33"/>
     </row>
-    <row r="211" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B211" s="85"/>
       <c r="C211" s="108">
         <v>36.700000000000003</v>
@@ -15489,7 +15484,7 @@
       <c r="X211" s="108"/>
       <c r="Y211" s="33"/>
     </row>
-    <row r="212" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B212" s="85"/>
       <c r="C212" s="108">
         <v>3.6</v>
@@ -15521,7 +15516,7 @@
       <c r="X212" s="108"/>
       <c r="Y212" s="33"/>
     </row>
-    <row r="213" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B213" s="85"/>
       <c r="C213" s="108">
         <v>13.6</v>
@@ -15553,7 +15548,7 @@
       <c r="X213" s="108"/>
       <c r="Y213" s="33"/>
     </row>
-    <row r="214" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B214" s="85"/>
       <c r="C214" s="108">
         <v>8.4</v>
@@ -15585,7 +15580,7 @@
       <c r="X214" s="108"/>
       <c r="Y214" s="33"/>
     </row>
-    <row r="215" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B215" s="85"/>
       <c r="C215" s="108">
         <v>31.2</v>
@@ -15617,7 +15612,7 @@
       <c r="X215" s="108"/>
       <c r="Y215" s="33"/>
     </row>
-    <row r="216" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B216" s="85"/>
       <c r="C216" s="108">
         <v>27.9</v>
@@ -15649,7 +15644,7 @@
       <c r="X216" s="108"/>
       <c r="Y216" s="33"/>
     </row>
-    <row r="217" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B217" s="85"/>
       <c r="C217" s="108">
         <v>42</v>
@@ -15681,7 +15676,7 @@
       <c r="X217" s="108"/>
       <c r="Y217" s="33"/>
     </row>
-    <row r="218" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B218" s="85"/>
       <c r="C218" s="108">
         <v>3.1</v>
@@ -15713,7 +15708,7 @@
       <c r="X218" s="108"/>
       <c r="Y218" s="33"/>
     </row>
-    <row r="219" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B219" s="85"/>
       <c r="C219" s="108">
         <v>8.8000000000000007</v>
@@ -15745,7 +15740,7 @@
       <c r="X219" s="108"/>
       <c r="Y219" s="33"/>
     </row>
-    <row r="220" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B220" s="85"/>
       <c r="C220" s="108">
         <v>4.9000000000000004</v>
@@ -15777,7 +15772,7 @@
       <c r="X220" s="108"/>
       <c r="Y220" s="33"/>
     </row>
-    <row r="221" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B221" s="85"/>
       <c r="C221" s="108">
         <v>9.6999999999999993</v>
@@ -15809,7 +15804,7 @@
       <c r="X221" s="108"/>
       <c r="Y221" s="33"/>
     </row>
-    <row r="222" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B222" s="85"/>
       <c r="C222" s="108">
         <v>3.2</v>
@@ -15841,7 +15836,7 @@
       <c r="X222" s="108"/>
       <c r="Y222" s="33"/>
     </row>
-    <row r="223" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B223" s="85"/>
       <c r="C223" s="108">
         <v>11.5</v>
@@ -15873,7 +15868,7 @@
       <c r="X223" s="108"/>
       <c r="Y223" s="33"/>
     </row>
-    <row r="224" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B224" s="85"/>
       <c r="C224" s="108">
         <v>13.9</v>
@@ -15905,7 +15900,7 @@
       <c r="X224" s="108"/>
       <c r="Y224" s="33"/>
     </row>
-    <row r="225" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B225" s="85"/>
       <c r="C225" s="108">
         <v>34.9</v>
@@ -15937,7 +15932,7 @@
       <c r="X225" s="108"/>
       <c r="Y225" s="33"/>
     </row>
-    <row r="226" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B226" s="85"/>
       <c r="C226" s="108">
         <v>35.5</v>
@@ -15969,7 +15964,7 @@
       <c r="X226" s="108"/>
       <c r="Y226" s="33"/>
     </row>
-    <row r="227" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B227" s="85"/>
       <c r="C227" s="108">
         <v>11</v>
@@ -16001,7 +15996,7 @@
       <c r="X227" s="108"/>
       <c r="Y227" s="33"/>
     </row>
-    <row r="228" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B228" s="85"/>
       <c r="C228" s="108">
         <v>19.3</v>
@@ -16033,7 +16028,7 @@
       <c r="X228" s="108"/>
       <c r="Y228" s="33"/>
     </row>
-    <row r="229" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B229" s="85"/>
       <c r="C229" s="108"/>
       <c r="D229" s="45">
@@ -16063,7 +16058,7 @@
       <c r="X229" s="108"/>
       <c r="Y229" s="33"/>
     </row>
-    <row r="230" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B230" s="85"/>
       <c r="C230" s="108"/>
       <c r="D230" s="45">
@@ -16093,7 +16088,7 @@
       <c r="X230" s="108"/>
       <c r="Y230" s="33"/>
     </row>
-    <row r="231" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B231" s="85"/>
       <c r="C231" s="108"/>
       <c r="D231" s="45">
@@ -16123,7 +16118,7 @@
       <c r="X231" s="108"/>
       <c r="Y231" s="33"/>
     </row>
-    <row r="232" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B232" s="85"/>
       <c r="C232" s="108"/>
       <c r="D232" s="45">
@@ -16153,7 +16148,7 @@
       <c r="X232" s="108"/>
       <c r="Y232" s="33"/>
     </row>
-    <row r="233" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B233" s="85"/>
       <c r="C233" s="108"/>
       <c r="D233" s="45">
@@ -16183,7 +16178,7 @@
       <c r="X233" s="108"/>
       <c r="Y233" s="33"/>
     </row>
-    <row r="234" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B234" s="85"/>
       <c r="C234" s="108"/>
       <c r="D234" s="45">
@@ -16213,7 +16208,7 @@
       <c r="X234" s="108"/>
       <c r="Y234" s="33"/>
     </row>
-    <row r="235" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B235" s="85"/>
       <c r="C235" s="108"/>
       <c r="D235" s="45">
@@ -16243,7 +16238,7 @@
       <c r="X235" s="108"/>
       <c r="Y235" s="33"/>
     </row>
-    <row r="236" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B236" s="85"/>
       <c r="C236" s="108"/>
       <c r="D236" s="45">
@@ -16273,7 +16268,7 @@
       <c r="X236" s="108"/>
       <c r="Y236" s="33"/>
     </row>
-    <row r="237" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B237" s="85"/>
       <c r="C237" s="108"/>
       <c r="D237" s="45">
@@ -16303,7 +16298,7 @@
       <c r="X237" s="108"/>
       <c r="Y237" s="33"/>
     </row>
-    <row r="238" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B238" s="85"/>
       <c r="C238" s="108"/>
       <c r="D238" s="45">
@@ -16333,7 +16328,7 @@
       <c r="X238" s="108"/>
       <c r="Y238" s="33"/>
     </row>
-    <row r="239" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B239" s="85"/>
       <c r="C239" s="108"/>
       <c r="D239" s="45">
@@ -16363,7 +16358,7 @@
       <c r="X239" s="108"/>
       <c r="Y239" s="33"/>
     </row>
-    <row r="240" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B240" s="85"/>
       <c r="C240" s="108"/>
       <c r="D240" s="45">
@@ -16393,7 +16388,7 @@
       <c r="X240" s="108"/>
       <c r="Y240" s="33"/>
     </row>
-    <row r="241" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B241" s="85"/>
       <c r="C241" s="108"/>
       <c r="D241" s="45">
@@ -16423,7 +16418,7 @@
       <c r="X241" s="108"/>
       <c r="Y241" s="33"/>
     </row>
-    <row r="242" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B242" s="85"/>
       <c r="C242" s="108"/>
       <c r="D242" s="45">
@@ -16453,7 +16448,7 @@
       <c r="X242" s="108"/>
       <c r="Y242" s="33"/>
     </row>
-    <row r="243" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B243" s="88"/>
       <c r="C243" s="23"/>
       <c r="D243" s="89">
@@ -16483,7 +16478,7 @@
       <c r="X243" s="23"/>
       <c r="Y243" s="41"/>
     </row>
-    <row r="244" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B244" s="39"/>
       <c r="C244" s="2"/>
       <c r="D244" s="17">
@@ -16513,7 +16508,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="106"/>
     </row>
-    <row r="245" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B245" s="39"/>
       <c r="C245" s="2"/>
       <c r="D245" s="17">
@@ -16543,7 +16538,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="106"/>
     </row>
-    <row r="246" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B246" s="39"/>
       <c r="C246" s="2"/>
       <c r="D246" s="17">
@@ -16573,7 +16568,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="106"/>
     </row>
-    <row r="247" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B247" s="39"/>
       <c r="C247" s="2"/>
       <c r="D247" s="17">
@@ -16603,7 +16598,7 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="106"/>
     </row>
-    <row r="248" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B248" s="39"/>
       <c r="C248" s="2"/>
       <c r="D248" s="17">
@@ -16633,7 +16628,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="106"/>
     </row>
-    <row r="249" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B249" s="39"/>
       <c r="C249" s="2"/>
       <c r="D249" s="17"/>
@@ -16661,7 +16656,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="106"/>
     </row>
-    <row r="250" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B250" s="39"/>
       <c r="C250" s="2"/>
       <c r="D250" s="17"/>
@@ -16689,7 +16684,7 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="106"/>
     </row>
-    <row r="251" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B251" s="39"/>
       <c r="C251" s="2"/>
       <c r="D251" s="17"/>
@@ -16717,7 +16712,7 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="106"/>
     </row>
-    <row r="252" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B252" s="39"/>
       <c r="C252" s="2"/>
       <c r="D252" s="17"/>
@@ -16745,7 +16740,7 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="106"/>
     </row>
-    <row r="253" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B253" s="39"/>
       <c r="C253" s="2"/>
       <c r="D253" s="17"/>
@@ -16773,7 +16768,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="106"/>
     </row>
-    <row r="254" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B254" s="39"/>
       <c r="C254" s="2"/>
       <c r="D254" s="17"/>
@@ -16801,7 +16796,7 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="106"/>
     </row>
-    <row r="255" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B255" s="39"/>
       <c r="C255" s="2"/>
       <c r="D255" s="17"/>
@@ -16829,7 +16824,7 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="106"/>
     </row>
-    <row r="256" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B256" s="39"/>
       <c r="C256" s="2"/>
       <c r="D256" s="17"/>
@@ -16857,7 +16852,7 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="106"/>
     </row>
-    <row r="257" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B257" s="39"/>
       <c r="C257" s="2"/>
       <c r="D257" s="17"/>
@@ -16885,7 +16880,7 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="106"/>
     </row>
-    <row r="258" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B258" s="39"/>
       <c r="C258" s="2"/>
       <c r="D258" s="17"/>
@@ -16913,7 +16908,7 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="106"/>
     </row>
-    <row r="259" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B259" s="39"/>
       <c r="C259" s="2"/>
       <c r="D259" s="17"/>
@@ -16941,7 +16936,7 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="106"/>
     </row>
-    <row r="260" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B260" s="39"/>
       <c r="C260" s="2"/>
       <c r="D260" s="17"/>
@@ -16969,7 +16964,7 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="106"/>
     </row>
-    <row r="261" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B261" s="39"/>
       <c r="C261" s="2"/>
       <c r="D261" s="17"/>
@@ -16997,7 +16992,7 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="106"/>
     </row>
-    <row r="262" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B262" s="39"/>
       <c r="C262" s="2"/>
       <c r="D262" s="17"/>
@@ -17025,7 +17020,7 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="106"/>
     </row>
-    <row r="263" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B263" s="39"/>
       <c r="C263" s="2"/>
       <c r="D263" s="17"/>
@@ -17053,7 +17048,7 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="106"/>
     </row>
-    <row r="264" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B264" s="39"/>
       <c r="C264" s="2"/>
       <c r="D264" s="17"/>
@@ -17081,7 +17076,7 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="106"/>
     </row>
-    <row r="265" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B265" s="39"/>
       <c r="C265" s="2"/>
       <c r="D265" s="17"/>
@@ -17109,7 +17104,7 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="106"/>
     </row>
-    <row r="266" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B266" s="39"/>
       <c r="C266" s="2"/>
       <c r="D266" s="17"/>
@@ -17137,7 +17132,7 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="106"/>
     </row>
-    <row r="267" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B267" s="39"/>
       <c r="C267" s="2"/>
       <c r="D267" s="17"/>
@@ -17165,7 +17160,7 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="106"/>
     </row>
-    <row r="268" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B268" s="39"/>
       <c r="C268" s="2"/>
       <c r="D268" s="17"/>
@@ -17193,7 +17188,7 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="106"/>
     </row>
-    <row r="269" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B269" s="39"/>
       <c r="C269" s="2"/>
       <c r="D269" s="17"/>
@@ -17221,7 +17216,7 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="106"/>
     </row>
-    <row r="270" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B270" s="39"/>
       <c r="C270" s="2"/>
       <c r="D270" s="17"/>
@@ -17249,7 +17244,7 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="106"/>
     </row>
-    <row r="271" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B271" s="39"/>
       <c r="C271" s="2"/>
       <c r="D271" s="17"/>
@@ -17277,7 +17272,7 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="106"/>
     </row>
-    <row r="272" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B272" s="39"/>
       <c r="C272" s="2"/>
       <c r="D272" s="17"/>
@@ -17305,7 +17300,7 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="106"/>
     </row>
-    <row r="273" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B273" s="39"/>
       <c r="C273" s="2"/>
       <c r="D273" s="17"/>
@@ -17333,7 +17328,7 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="106"/>
     </row>
-    <row r="274" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B274" s="39"/>
       <c r="C274" s="2"/>
       <c r="D274" s="17"/>
@@ -17361,7 +17356,7 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="106"/>
     </row>
-    <row r="275" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B275" s="39"/>
       <c r="C275" s="2"/>
       <c r="D275" s="17"/>
@@ -17389,7 +17384,7 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="106"/>
     </row>
-    <row r="276" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B276" s="39"/>
       <c r="C276" s="2"/>
       <c r="D276" s="17"/>
@@ -17417,7 +17412,7 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="106"/>
     </row>
-    <row r="277" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B277" s="40"/>
       <c r="C277" s="6"/>
       <c r="D277" s="18"/>
@@ -17445,97 +17440,97 @@
       <c r="X277" s="6"/>
       <c r="Y277" s="107"/>
     </row>
-    <row r="278" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E278" s="178">
         <v>52.5</v>
       </c>
     </row>
-    <row r="282" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="284" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="D284" s="200"/>
-      <c r="E284" s="200"/>
-      <c r="F284" s="200"/>
-      <c r="G284" s="200"/>
-      <c r="H284" s="200"/>
-      <c r="I284" s="200"/>
-      <c r="J284" s="200"/>
-    </row>
-    <row r="288" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="289" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B289" s="201" t="s">
+    <row r="284" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D284" s="217"/>
+      <c r="E284" s="217"/>
+      <c r="F284" s="217"/>
+      <c r="G284" s="217"/>
+      <c r="H284" s="217"/>
+      <c r="I284" s="217"/>
+      <c r="J284" s="217"/>
+    </row>
+    <row r="288" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="C289" s="202"/>
-      <c r="D289" s="202"/>
-      <c r="E289" s="202"/>
-      <c r="F289" s="202"/>
-      <c r="G289" s="202"/>
-      <c r="H289" s="202"/>
-      <c r="I289" s="202"/>
-      <c r="J289" s="202"/>
-      <c r="K289" s="202"/>
-      <c r="L289" s="202"/>
-      <c r="M289" s="202"/>
-      <c r="N289" s="202"/>
-      <c r="O289" s="202"/>
-      <c r="P289" s="202"/>
-      <c r="Q289" s="202"/>
-      <c r="R289" s="202"/>
-      <c r="S289" s="202"/>
-      <c r="T289" s="202"/>
-      <c r="U289" s="202"/>
-      <c r="V289" s="202"/>
-      <c r="W289" s="202"/>
-      <c r="X289" s="202"/>
-      <c r="Y289" s="203"/>
-    </row>
-    <row r="290" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B290" s="191" t="s">
+      <c r="C289" s="192"/>
+      <c r="D289" s="192"/>
+      <c r="E289" s="192"/>
+      <c r="F289" s="192"/>
+      <c r="G289" s="192"/>
+      <c r="H289" s="192"/>
+      <c r="I289" s="192"/>
+      <c r="J289" s="192"/>
+      <c r="K289" s="192"/>
+      <c r="L289" s="192"/>
+      <c r="M289" s="192"/>
+      <c r="N289" s="192"/>
+      <c r="O289" s="192"/>
+      <c r="P289" s="192"/>
+      <c r="Q289" s="192"/>
+      <c r="R289" s="192"/>
+      <c r="S289" s="192"/>
+      <c r="T289" s="192"/>
+      <c r="U289" s="192"/>
+      <c r="V289" s="192"/>
+      <c r="W289" s="192"/>
+      <c r="X289" s="192"/>
+      <c r="Y289" s="193"/>
+    </row>
+    <row r="290" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="C290" s="192"/>
-      <c r="D290" s="193"/>
+      <c r="C290" s="195"/>
+      <c r="D290" s="196"/>
       <c r="E290" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="F290" s="192"/>
-      <c r="G290" s="193"/>
+      <c r="F290" s="195"/>
+      <c r="G290" s="196"/>
       <c r="H290" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="I290" s="192"/>
-      <c r="J290" s="193"/>
+      <c r="I290" s="195"/>
+      <c r="J290" s="196"/>
       <c r="K290" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="L290" s="192"/>
+      <c r="L290" s="195"/>
       <c r="M290" s="198"/>
       <c r="N290" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="O290" s="192"/>
-      <c r="P290" s="193"/>
-      <c r="Q290" s="191" t="s">
+      <c r="O290" s="195"/>
+      <c r="P290" s="196"/>
+      <c r="Q290" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="R290" s="192"/>
-      <c r="S290" s="193"/>
-      <c r="T290" s="194" t="s">
+      <c r="R290" s="195"/>
+      <c r="S290" s="196"/>
+      <c r="T290" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="U290" s="195"/>
-      <c r="V290" s="195"/>
-      <c r="W290" s="191" t="s">
+      <c r="U290" s="201"/>
+      <c r="V290" s="201"/>
+      <c r="W290" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="X290" s="192"/>
-      <c r="Y290" s="196"/>
-    </row>
-    <row r="291" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X290" s="195"/>
+      <c r="Y290" s="202"/>
+    </row>
+    <row r="291" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B291" s="70" t="s">
         <v>13</v>
       </c>
@@ -17609,7 +17604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="292" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B292" s="146"/>
       <c r="C292" s="22"/>
       <c r="D292" s="44"/>
@@ -17635,7 +17630,7 @@
       <c r="X292" s="22"/>
       <c r="Y292" s="34"/>
     </row>
-    <row r="293" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B293" s="147"/>
       <c r="C293" s="108"/>
       <c r="D293" s="45"/>
@@ -17661,7 +17656,7 @@
       <c r="X293" s="108"/>
       <c r="Y293" s="33"/>
     </row>
-    <row r="294" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B294" s="147"/>
       <c r="C294" s="108"/>
       <c r="D294" s="45"/>
@@ -17687,7 +17682,7 @@
       <c r="X294" s="108"/>
       <c r="Y294" s="33"/>
     </row>
-    <row r="295" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B295" s="147"/>
       <c r="C295" s="108"/>
       <c r="D295" s="45"/>
@@ -17713,7 +17708,7 @@
       <c r="X295" s="108"/>
       <c r="Y295" s="33"/>
     </row>
-    <row r="296" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B296" s="147"/>
       <c r="C296" s="108"/>
       <c r="D296" s="45"/>
@@ -17739,7 +17734,7 @@
       <c r="X296" s="108"/>
       <c r="Y296" s="33"/>
     </row>
-    <row r="297" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B297" s="147"/>
       <c r="C297" s="108"/>
       <c r="D297" s="45"/>
@@ -17765,7 +17760,7 @@
       <c r="X297" s="108"/>
       <c r="Y297" s="33"/>
     </row>
-    <row r="298" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B298" s="147"/>
       <c r="C298" s="108"/>
       <c r="D298" s="45"/>
@@ -17791,7 +17786,7 @@
       <c r="X298" s="108"/>
       <c r="Y298" s="33"/>
     </row>
-    <row r="299" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B299" s="147"/>
       <c r="C299" s="108"/>
       <c r="D299" s="45"/>
@@ -17819,7 +17814,7 @@
       <c r="X299" s="108"/>
       <c r="Y299" s="33"/>
     </row>
-    <row r="300" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B300" s="147"/>
       <c r="C300" s="108"/>
       <c r="D300" s="45"/>
@@ -17845,7 +17840,7 @@
       <c r="X300" s="108"/>
       <c r="Y300" s="33"/>
     </row>
-    <row r="301" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B301" s="147"/>
       <c r="C301" s="108"/>
       <c r="D301" s="45"/>
@@ -17871,7 +17866,7 @@
       <c r="X301" s="108"/>
       <c r="Y301" s="33"/>
     </row>
-    <row r="302" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B302" s="147"/>
       <c r="C302" s="108"/>
       <c r="D302" s="45"/>
@@ -17897,7 +17892,7 @@
       <c r="X302" s="108"/>
       <c r="Y302" s="33"/>
     </row>
-    <row r="303" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B303" s="147"/>
       <c r="C303" s="108"/>
       <c r="D303" s="45"/>
@@ -17923,7 +17918,7 @@
       <c r="X303" s="108"/>
       <c r="Y303" s="33"/>
     </row>
-    <row r="304" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B304" s="147"/>
       <c r="C304" s="108"/>
       <c r="D304" s="45"/>
@@ -17949,7 +17944,7 @@
       <c r="X304" s="108"/>
       <c r="Y304" s="33"/>
     </row>
-    <row r="305" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B305" s="147"/>
       <c r="C305" s="108"/>
       <c r="D305" s="45"/>
@@ -17975,7 +17970,7 @@
       <c r="X305" s="108"/>
       <c r="Y305" s="33"/>
     </row>
-    <row r="306" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B306" s="147"/>
       <c r="C306" s="108"/>
       <c r="D306" s="45"/>
@@ -18001,7 +17996,7 @@
       <c r="X306" s="108"/>
       <c r="Y306" s="33"/>
     </row>
-    <row r="307" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B307" s="147"/>
       <c r="C307" s="108"/>
       <c r="D307" s="45"/>
@@ -18027,7 +18022,7 @@
       <c r="X307" s="108"/>
       <c r="Y307" s="33"/>
     </row>
-    <row r="308" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B308" s="147"/>
       <c r="C308" s="108"/>
       <c r="D308" s="45"/>
@@ -18053,7 +18048,7 @@
       <c r="X308" s="108"/>
       <c r="Y308" s="33"/>
     </row>
-    <row r="309" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B309" s="147"/>
       <c r="C309" s="108"/>
       <c r="D309" s="45"/>
@@ -18079,7 +18074,7 @@
       <c r="X309" s="108"/>
       <c r="Y309" s="33"/>
     </row>
-    <row r="310" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B310" s="147"/>
       <c r="C310" s="108"/>
       <c r="D310" s="45"/>
@@ -18105,7 +18100,7 @@
       <c r="X310" s="108"/>
       <c r="Y310" s="33"/>
     </row>
-    <row r="311" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B311" s="147"/>
       <c r="C311" s="108"/>
       <c r="D311" s="45"/>
@@ -18131,7 +18126,7 @@
       <c r="X311" s="108"/>
       <c r="Y311" s="33"/>
     </row>
-    <row r="312" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B312" s="147"/>
       <c r="C312" s="108"/>
       <c r="D312" s="45"/>
@@ -18157,7 +18152,7 @@
       <c r="X312" s="108"/>
       <c r="Y312" s="33"/>
     </row>
-    <row r="313" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B313" s="147"/>
       <c r="C313" s="108"/>
       <c r="D313" s="45"/>
@@ -18183,7 +18178,7 @@
       <c r="X313" s="108"/>
       <c r="Y313" s="33"/>
     </row>
-    <row r="314" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B314" s="147"/>
       <c r="C314" s="108"/>
       <c r="D314" s="45"/>
@@ -18209,7 +18204,7 @@
       <c r="X314" s="108"/>
       <c r="Y314" s="33"/>
     </row>
-    <row r="315" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B315" s="147"/>
       <c r="C315" s="108"/>
       <c r="D315" s="45"/>
@@ -18235,7 +18230,7 @@
       <c r="X315" s="108"/>
       <c r="Y315" s="33"/>
     </row>
-    <row r="316" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B316" s="147"/>
       <c r="C316" s="108"/>
       <c r="D316" s="45"/>
@@ -18261,7 +18256,7 @@
       <c r="X316" s="108"/>
       <c r="Y316" s="33"/>
     </row>
-    <row r="317" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B317" s="147"/>
       <c r="C317" s="108"/>
       <c r="D317" s="45"/>
@@ -18287,7 +18282,7 @@
       <c r="X317" s="108"/>
       <c r="Y317" s="33"/>
     </row>
-    <row r="318" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B318" s="147"/>
       <c r="C318" s="108"/>
       <c r="D318" s="45"/>
@@ -18313,7 +18308,7 @@
       <c r="X318" s="108"/>
       <c r="Y318" s="33"/>
     </row>
-    <row r="319" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B319" s="147"/>
       <c r="C319" s="108"/>
       <c r="D319" s="45"/>
@@ -18339,7 +18334,7 @@
       <c r="X319" s="108"/>
       <c r="Y319" s="33"/>
     </row>
-    <row r="320" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B320" s="147"/>
       <c r="C320" s="108"/>
       <c r="D320" s="45"/>
@@ -18365,7 +18360,7 @@
       <c r="X320" s="108"/>
       <c r="Y320" s="33"/>
     </row>
-    <row r="321" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B321" s="147"/>
       <c r="C321" s="108"/>
       <c r="D321" s="45"/>
@@ -18391,7 +18386,7 @@
       <c r="X321" s="108"/>
       <c r="Y321" s="33"/>
     </row>
-    <row r="322" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B322" s="147"/>
       <c r="C322" s="108"/>
       <c r="D322" s="45"/>
@@ -18417,7 +18412,7 @@
       <c r="X322" s="108"/>
       <c r="Y322" s="33"/>
     </row>
-    <row r="323" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B323" s="147"/>
       <c r="C323" s="108"/>
       <c r="D323" s="45"/>
@@ -18443,7 +18438,7 @@
       <c r="X323" s="108"/>
       <c r="Y323" s="33"/>
     </row>
-    <row r="324" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B324" s="147"/>
       <c r="C324" s="108"/>
       <c r="D324" s="45"/>
@@ -18469,7 +18464,7 @@
       <c r="X324" s="108"/>
       <c r="Y324" s="33"/>
     </row>
-    <row r="325" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B325" s="147"/>
       <c r="C325" s="108"/>
       <c r="D325" s="45"/>
@@ -18495,7 +18490,7 @@
       <c r="X325" s="108"/>
       <c r="Y325" s="33"/>
     </row>
-    <row r="326" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B326" s="147"/>
       <c r="C326" s="108"/>
       <c r="D326" s="45"/>
@@ -18521,7 +18516,7 @@
       <c r="X326" s="108"/>
       <c r="Y326" s="33"/>
     </row>
-    <row r="327" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B327" s="147"/>
       <c r="C327" s="108"/>
       <c r="D327" s="45"/>
@@ -18547,7 +18542,7 @@
       <c r="X327" s="108"/>
       <c r="Y327" s="33"/>
     </row>
-    <row r="328" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B328" s="147"/>
       <c r="C328" s="108"/>
       <c r="D328" s="45"/>
@@ -18573,7 +18568,7 @@
       <c r="X328" s="108"/>
       <c r="Y328" s="33"/>
     </row>
-    <row r="329" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B329" s="147"/>
       <c r="C329" s="108"/>
       <c r="D329" s="45"/>
@@ -18599,7 +18594,7 @@
       <c r="X329" s="108"/>
       <c r="Y329" s="33"/>
     </row>
-    <row r="330" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B330" s="147"/>
       <c r="C330" s="108"/>
       <c r="D330" s="45"/>
@@ -18625,7 +18620,7 @@
       <c r="X330" s="108"/>
       <c r="Y330" s="33"/>
     </row>
-    <row r="331" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B331" s="147"/>
       <c r="C331" s="108"/>
       <c r="D331" s="45"/>
@@ -18651,7 +18646,7 @@
       <c r="X331" s="108"/>
       <c r="Y331" s="33"/>
     </row>
-    <row r="332" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B332" s="147"/>
       <c r="C332" s="108"/>
       <c r="D332" s="45"/>
@@ -18677,7 +18672,7 @@
       <c r="X332" s="108"/>
       <c r="Y332" s="33"/>
     </row>
-    <row r="333" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B333" s="147"/>
       <c r="C333" s="108"/>
       <c r="D333" s="45"/>
@@ -18703,7 +18698,7 @@
       <c r="X333" s="108"/>
       <c r="Y333" s="33"/>
     </row>
-    <row r="334" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B334" s="147"/>
       <c r="C334" s="108"/>
       <c r="D334" s="45"/>
@@ -18729,7 +18724,7 @@
       <c r="X334" s="108"/>
       <c r="Y334" s="33"/>
     </row>
-    <row r="335" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B335" s="147"/>
       <c r="C335" s="108"/>
       <c r="D335" s="45"/>
@@ -18755,7 +18750,7 @@
       <c r="X335" s="108"/>
       <c r="Y335" s="33"/>
     </row>
-    <row r="336" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B336" s="147"/>
       <c r="C336" s="108"/>
       <c r="D336" s="45"/>
@@ -18781,7 +18776,7 @@
       <c r="X336" s="108"/>
       <c r="Y336" s="33"/>
     </row>
-    <row r="337" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B337" s="147"/>
       <c r="C337" s="108"/>
       <c r="D337" s="45"/>
@@ -18807,7 +18802,7 @@
       <c r="X337" s="108"/>
       <c r="Y337" s="33"/>
     </row>
-    <row r="338" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B338" s="147"/>
       <c r="C338" s="108"/>
       <c r="D338" s="45"/>
@@ -18833,7 +18828,7 @@
       <c r="X338" s="108"/>
       <c r="Y338" s="33"/>
     </row>
-    <row r="339" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B339" s="147"/>
       <c r="C339" s="108"/>
       <c r="D339" s="45"/>
@@ -18859,7 +18854,7 @@
       <c r="X339" s="108"/>
       <c r="Y339" s="33"/>
     </row>
-    <row r="340" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B340" s="147"/>
       <c r="C340" s="108"/>
       <c r="D340" s="45"/>
@@ -18885,7 +18880,7 @@
       <c r="X340" s="108"/>
       <c r="Y340" s="33"/>
     </row>
-    <row r="341" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B341" s="147"/>
       <c r="C341" s="108"/>
       <c r="D341" s="45"/>
@@ -18911,7 +18906,7 @@
       <c r="X341" s="108"/>
       <c r="Y341" s="33"/>
     </row>
-    <row r="342" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B342" s="147"/>
       <c r="C342" s="108"/>
       <c r="D342" s="45"/>
@@ -18937,7 +18932,7 @@
       <c r="X342" s="108"/>
       <c r="Y342" s="33"/>
     </row>
-    <row r="343" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B343" s="147"/>
       <c r="C343" s="108"/>
       <c r="D343" s="45"/>
@@ -18963,7 +18958,7 @@
       <c r="X343" s="108"/>
       <c r="Y343" s="33"/>
     </row>
-    <row r="344" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B344" s="147"/>
       <c r="C344" s="108"/>
       <c r="D344" s="45"/>
@@ -18989,7 +18984,7 @@
       <c r="X344" s="108"/>
       <c r="Y344" s="33"/>
     </row>
-    <row r="345" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B345" s="147"/>
       <c r="C345" s="108"/>
       <c r="D345" s="45"/>
@@ -19015,7 +19010,7 @@
       <c r="X345" s="108"/>
       <c r="Y345" s="33"/>
     </row>
-    <row r="346" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B346" s="147"/>
       <c r="C346" s="108"/>
       <c r="D346" s="45"/>
@@ -19041,7 +19036,7 @@
       <c r="X346" s="108"/>
       <c r="Y346" s="33"/>
     </row>
-    <row r="347" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B347" s="147"/>
       <c r="C347" s="108"/>
       <c r="D347" s="45"/>
@@ -19067,7 +19062,7 @@
       <c r="X347" s="108"/>
       <c r="Y347" s="33"/>
     </row>
-    <row r="348" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B348" s="147"/>
       <c r="C348" s="108"/>
       <c r="D348" s="45"/>
@@ -19093,7 +19088,7 @@
       <c r="X348" s="108"/>
       <c r="Y348" s="33"/>
     </row>
-    <row r="349" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B349" s="147"/>
       <c r="C349" s="108"/>
       <c r="D349" s="45"/>
@@ -19119,7 +19114,7 @@
       <c r="X349" s="108"/>
       <c r="Y349" s="33"/>
     </row>
-    <row r="350" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B350" s="147"/>
       <c r="C350" s="108"/>
       <c r="D350" s="45"/>
@@ -19145,7 +19140,7 @@
       <c r="X350" s="108"/>
       <c r="Y350" s="33"/>
     </row>
-    <row r="351" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B351" s="147"/>
       <c r="C351" s="108"/>
       <c r="D351" s="45"/>
@@ -19171,7 +19166,7 @@
       <c r="X351" s="108"/>
       <c r="Y351" s="33"/>
     </row>
-    <row r="352" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B352" s="147"/>
       <c r="C352" s="108"/>
       <c r="D352" s="45"/>
@@ -19197,7 +19192,7 @@
       <c r="X352" s="108"/>
       <c r="Y352" s="33"/>
     </row>
-    <row r="353" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B353" s="147"/>
       <c r="C353" s="108"/>
       <c r="D353" s="45"/>
@@ -19223,7 +19218,7 @@
       <c r="X353" s="108"/>
       <c r="Y353" s="33"/>
     </row>
-    <row r="354" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B354" s="148"/>
       <c r="C354" s="23"/>
       <c r="D354" s="89"/>
@@ -19249,7 +19244,7 @@
       <c r="X354" s="23"/>
       <c r="Y354" s="41"/>
     </row>
-    <row r="355" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B355" s="149"/>
       <c r="C355" s="2"/>
       <c r="D355" s="17"/>
@@ -19275,7 +19270,7 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="106"/>
     </row>
-    <row r="356" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B356" s="149"/>
       <c r="C356" s="2"/>
       <c r="D356" s="17"/>
@@ -19301,7 +19296,7 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="106"/>
     </row>
-    <row r="357" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B357" s="149"/>
       <c r="C357" s="2"/>
       <c r="D357" s="17"/>
@@ -19327,7 +19322,7 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="106"/>
     </row>
-    <row r="358" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B358" s="149"/>
       <c r="C358" s="2"/>
       <c r="D358" s="17"/>
@@ -19353,7 +19348,7 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="106"/>
     </row>
-    <row r="359" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B359" s="149"/>
       <c r="C359" s="2"/>
       <c r="D359" s="17"/>
@@ -19379,7 +19374,7 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="106"/>
     </row>
-    <row r="360" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B360" s="149"/>
       <c r="C360" s="2"/>
       <c r="D360" s="17"/>
@@ -19405,7 +19400,7 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="106"/>
     </row>
-    <row r="361" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B361" s="149"/>
       <c r="C361" s="2"/>
       <c r="D361" s="17"/>
@@ -19431,7 +19426,7 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="106"/>
     </row>
-    <row r="362" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B362" s="149"/>
       <c r="C362" s="2"/>
       <c r="D362" s="17"/>
@@ -19457,7 +19452,7 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="106"/>
     </row>
-    <row r="363" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B363" s="149"/>
       <c r="C363" s="2"/>
       <c r="D363" s="17"/>
@@ -19483,7 +19478,7 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="106"/>
     </row>
-    <row r="364" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B364" s="149"/>
       <c r="C364" s="2"/>
       <c r="D364" s="17"/>
@@ -19509,7 +19504,7 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="106"/>
     </row>
-    <row r="365" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B365" s="149"/>
       <c r="C365" s="2"/>
       <c r="D365" s="17"/>
@@ -19535,7 +19530,7 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="106"/>
     </row>
-    <row r="366" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B366" s="149"/>
       <c r="C366" s="2"/>
       <c r="D366" s="17"/>
@@ -19561,7 +19556,7 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="106"/>
     </row>
-    <row r="367" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B367" s="149"/>
       <c r="C367" s="2"/>
       <c r="D367" s="17"/>
@@ -19587,7 +19582,7 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="106"/>
     </row>
-    <row r="368" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B368" s="149"/>
       <c r="C368" s="2"/>
       <c r="D368" s="17"/>
@@ -19613,7 +19608,7 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="106"/>
     </row>
-    <row r="369" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B369" s="149"/>
       <c r="C369" s="2"/>
       <c r="D369" s="17"/>
@@ -19639,7 +19634,7 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="106"/>
     </row>
-    <row r="370" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B370" s="149"/>
       <c r="C370" s="2"/>
       <c r="D370" s="17"/>
@@ -19665,7 +19660,7 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="106"/>
     </row>
-    <row r="371" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B371" s="149"/>
       <c r="C371" s="2"/>
       <c r="D371" s="17"/>
@@ -19691,7 +19686,7 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="106"/>
     </row>
-    <row r="372" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B372" s="149"/>
       <c r="C372" s="2"/>
       <c r="D372" s="17"/>
@@ -19717,7 +19712,7 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="106"/>
     </row>
-    <row r="373" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B373" s="149"/>
       <c r="C373" s="2"/>
       <c r="D373" s="17"/>
@@ -19743,7 +19738,7 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="106"/>
     </row>
-    <row r="374" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B374" s="149"/>
       <c r="C374" s="2"/>
       <c r="D374" s="17"/>
@@ -19769,7 +19764,7 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="106"/>
     </row>
-    <row r="375" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B375" s="149"/>
       <c r="C375" s="2"/>
       <c r="D375" s="17"/>
@@ -19795,7 +19790,7 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="106"/>
     </row>
-    <row r="376" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B376" s="149"/>
       <c r="C376" s="2"/>
       <c r="D376" s="17"/>
@@ -19821,7 +19816,7 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="106"/>
     </row>
-    <row r="377" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B377" s="149"/>
       <c r="C377" s="2"/>
       <c r="D377" s="17"/>
@@ -19847,7 +19842,7 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="106"/>
     </row>
-    <row r="378" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B378" s="149"/>
       <c r="C378" s="2"/>
       <c r="D378" s="17"/>
@@ -19873,7 +19868,7 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="106"/>
     </row>
-    <row r="379" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B379" s="149"/>
       <c r="C379" s="2"/>
       <c r="D379" s="17"/>
@@ -19899,7 +19894,7 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="106"/>
     </row>
-    <row r="380" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B380" s="149"/>
       <c r="C380" s="2"/>
       <c r="D380" s="17"/>
@@ -19925,7 +19920,7 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="106"/>
     </row>
-    <row r="381" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B381" s="149"/>
       <c r="C381" s="2"/>
       <c r="D381" s="17"/>
@@ -19951,7 +19946,7 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="106"/>
     </row>
-    <row r="382" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B382" s="149"/>
       <c r="C382" s="2"/>
       <c r="D382" s="17"/>
@@ -19977,7 +19972,7 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="106"/>
     </row>
-    <row r="383" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B383" s="149"/>
       <c r="C383" s="2"/>
       <c r="D383" s="17"/>
@@ -20003,7 +19998,7 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="106"/>
     </row>
-    <row r="384" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B384" s="149"/>
       <c r="C384" s="2"/>
       <c r="D384" s="17"/>
@@ -20029,7 +20024,7 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="106"/>
     </row>
-    <row r="385" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B385" s="149"/>
       <c r="C385" s="2"/>
       <c r="D385" s="17"/>
@@ -20055,7 +20050,7 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="106"/>
     </row>
-    <row r="386" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B386" s="149"/>
       <c r="C386" s="2"/>
       <c r="D386" s="17"/>
@@ -20081,7 +20076,7 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="106"/>
     </row>
-    <row r="387" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B387" s="149"/>
       <c r="C387" s="2"/>
       <c r="D387" s="17"/>
@@ -20107,7 +20102,7 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="106"/>
     </row>
-    <row r="388" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B388" s="150"/>
       <c r="C388" s="6"/>
       <c r="D388" s="18"/>
@@ -20135,33 +20130,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B178:Y178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="H179:J179"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="N179:P179"/>
-    <mergeCell ref="Q179:S179"/>
-    <mergeCell ref="T179:V179"/>
-    <mergeCell ref="W179:Y179"/>
-    <mergeCell ref="B74:Y74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="T75:V75"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
     <mergeCell ref="D284:J284"/>
     <mergeCell ref="B289:Y289"/>
     <mergeCell ref="Q290:S290"/>
@@ -20172,6 +20140,33 @@
     <mergeCell ref="H290:J290"/>
     <mergeCell ref="K290:M290"/>
     <mergeCell ref="N290:P290"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B74:Y74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="T75:V75"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="B178:Y178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="N179:P179"/>
+    <mergeCell ref="Q179:S179"/>
+    <mergeCell ref="T179:V179"/>
+    <mergeCell ref="W179:Y179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20185,26 +20180,21 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.36328125" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="16382" max="16384" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="30" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16382" max="16384" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="183" t="s">
@@ -20215,11 +20205,11 @@
       <c r="F2" s="184"/>
       <c r="G2" s="185"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="186" t="s">
@@ -20228,12 +20218,12 @@
       <c r="D3" s="187"/>
       <c r="E3" s="187"/>
       <c r="F3" s="187"/>
-      <c r="G3" s="219"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="226"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="217"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135" t="s">
         <v>2</v>
       </c>
@@ -20258,7 +20248,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="179" t="s">
         <v>7</v>
       </c>
@@ -20283,7 +20273,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="180"/>
       <c r="B6" s="30">
         <v>2</v>
@@ -20306,7 +20296,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="180"/>
       <c r="B7" s="30">
         <v>3</v>
@@ -20329,7 +20319,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="180"/>
       <c r="B8" s="30">
         <v>4</v>
@@ -20352,7 +20342,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="182"/>
       <c r="B9" s="171">
         <v>5</v>
@@ -20375,8 +20365,8 @@
       <c r="L9" s="1"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="225" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="222" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="170">
@@ -20400,8 +20390,8 @@
       <c r="L10" s="1"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="226"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="223"/>
       <c r="B11" s="24">
         <v>7</v>
       </c>
@@ -20423,8 +20413,8 @@
       <c r="L11" s="1"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="226"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="223"/>
       <c r="B12" s="24">
         <v>8</v>
       </c>
@@ -20446,8 +20436,8 @@
       <c r="L12" s="1"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="226"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="223"/>
       <c r="B13" s="24">
         <v>9</v>
       </c>
@@ -20469,8 +20459,8 @@
       <c r="L13" s="1"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="227"/>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="224"/>
       <c r="B14" s="25">
         <v>10</v>
       </c>
@@ -20492,8 +20482,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="221" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="218" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="136">
@@ -20517,8 +20507,8 @@
       <c r="L15" s="1"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="222"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="219"/>
       <c r="B16" s="38">
         <v>12</v>
       </c>
@@ -20540,8 +20530,8 @@
       <c r="L16" s="1"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="222"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="219"/>
       <c r="B17" s="38">
         <v>13</v>
       </c>
@@ -20563,8 +20553,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="222"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="219"/>
       <c r="B18" s="38">
         <v>14</v>
       </c>
@@ -20586,8 +20576,8 @@
       <c r="L18" s="1"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="224"/>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="221"/>
       <c r="B19" s="91">
         <v>15</v>
       </c>
@@ -20609,8 +20599,8 @@
       <c r="L19" s="1"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="221" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="218" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="26">
@@ -20634,8 +20624,8 @@
       <c r="L20" s="1"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="222"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="219"/>
       <c r="B21" s="24">
         <v>17</v>
       </c>
@@ -20657,8 +20647,8 @@
       <c r="L21" s="1"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="222"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="219"/>
       <c r="B22" s="24">
         <v>18</v>
       </c>
@@ -20680,8 +20670,8 @@
       <c r="L22" s="1"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="222"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="219"/>
       <c r="B23" s="24">
         <v>19</v>
       </c>
@@ -20703,8 +20693,8 @@
       <c r="L23" s="1"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="224"/>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="221"/>
       <c r="B24" s="25">
         <v>20</v>
       </c>
@@ -20726,8 +20716,8 @@
       <c r="L24" s="1"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="221" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="218" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="26">
@@ -20751,8 +20741,8 @@
       <c r="L25" s="1"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="222"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="219"/>
       <c r="B26" s="28">
         <v>22</v>
       </c>
@@ -20766,8 +20756,8 @@
       <c r="L26" s="1"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="222"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="219"/>
       <c r="B27" s="24">
         <v>23</v>
       </c>
@@ -20789,8 +20779,8 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="222"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="219"/>
       <c r="B28" s="24">
         <v>24</v>
       </c>
@@ -20812,8 +20802,8 @@
       <c r="L28" s="1"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="224"/>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="221"/>
       <c r="B29" s="25">
         <v>25</v>
       </c>
@@ -20835,8 +20825,8 @@
       <c r="L29" s="1"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="221" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="218" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="26">
@@ -20860,8 +20850,8 @@
       <c r="L30" s="1"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="222"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="219"/>
       <c r="B31" s="24">
         <v>27</v>
       </c>
@@ -20883,8 +20873,8 @@
       <c r="L31" s="1"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="222"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="219"/>
       <c r="B32" s="24">
         <v>28</v>
       </c>
@@ -20906,8 +20896,8 @@
       <c r="L32" s="1"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="222"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="219"/>
       <c r="B33" s="24">
         <v>29</v>
       </c>
@@ -20927,8 +20917,8 @@
       <c r="L33" s="1"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="224"/>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="221"/>
       <c r="B34" s="25">
         <v>30</v>
       </c>
@@ -20948,8 +20938,8 @@
       <c r="L34" s="1"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="221" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="218" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="26">
@@ -20971,8 +20961,8 @@
       <c r="L35" s="1"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="222"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="219"/>
       <c r="B36" s="24">
         <v>32</v>
       </c>
@@ -20992,8 +20982,8 @@
       <c r="L36" s="1"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="222"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="219"/>
       <c r="B37" s="24">
         <v>33</v>
       </c>
@@ -21013,8 +21003,8 @@
       <c r="L37" s="1"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="222"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="219"/>
       <c r="B38" s="24">
         <v>34</v>
       </c>
@@ -21034,8 +21024,8 @@
       <c r="L38" s="1"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="224"/>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="221"/>
       <c r="B39" s="25">
         <v>35</v>
       </c>
@@ -21055,8 +21045,8 @@
       <c r="L39" s="1"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="221" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="218" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="26">
@@ -21078,8 +21068,8 @@
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="222"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="219"/>
       <c r="B41" s="24">
         <v>37</v>
       </c>
@@ -21099,8 +21089,8 @@
       <c r="L41" s="1"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="222"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="219"/>
       <c r="B42" s="24">
         <v>38</v>
       </c>
@@ -21120,8 +21110,8 @@
       <c r="L42" s="1"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="222"/>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="219"/>
       <c r="B43" s="24">
         <v>39</v>
       </c>
@@ -21141,8 +21131,8 @@
       <c r="L43" s="1"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="223"/>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="220"/>
       <c r="B44" s="27">
         <v>40</v>
       </c>
@@ -21162,22 +21152,22 @@
       <c r="L44" s="1"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
     </row>
-    <row r="164" spans="18:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R164" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
     </row>
-    <row r="486" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="486" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L486" s="204" t="s">
         <v>48</v>
       </c>
@@ -21204,60 +21194,60 @@
       <c r="AG486" s="204"/>
       <c r="AH486" s="204"/>
       <c r="AI486" s="204"/>
-      <c r="AK486" s="220" t="s">
+      <c r="AK486" s="227" t="s">
         <v>59</v>
       </c>
-      <c r="AL486" s="220"/>
-      <c r="AM486" s="220"/>
-    </row>
-    <row r="487" spans="12:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AL486" s="227"/>
+      <c r="AM486" s="227"/>
+    </row>
+    <row r="487" spans="12:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L487" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="M487" s="192"/>
-      <c r="N487" s="193"/>
+      <c r="M487" s="195"/>
+      <c r="N487" s="196"/>
       <c r="O487" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="P487" s="192"/>
-      <c r="Q487" s="193"/>
+      <c r="P487" s="195"/>
+      <c r="Q487" s="196"/>
       <c r="R487" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="S487" s="192"/>
-      <c r="T487" s="193"/>
+      <c r="S487" s="195"/>
+      <c r="T487" s="196"/>
       <c r="U487" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="V487" s="192"/>
-      <c r="W487" s="193"/>
+      <c r="V487" s="195"/>
+      <c r="W487" s="196"/>
       <c r="X487" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="Y487" s="192"/>
-      <c r="Z487" s="193"/>
+      <c r="Y487" s="195"/>
+      <c r="Z487" s="196"/>
       <c r="AA487" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="AB487" s="192"/>
-      <c r="AC487" s="193"/>
-      <c r="AD487" s="205" t="s">
+      <c r="AB487" s="195"/>
+      <c r="AC487" s="196"/>
+      <c r="AD487" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AE487" s="195"/>
-      <c r="AF487" s="195"/>
+      <c r="AE487" s="201"/>
+      <c r="AF487" s="201"/>
       <c r="AG487" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="AH487" s="192"/>
-      <c r="AI487" s="206"/>
-      <c r="AK487" s="218" t="s">
+      <c r="AH487" s="195"/>
+      <c r="AI487" s="216"/>
+      <c r="AK487" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="AL487" s="218"/>
+      <c r="AL487" s="225"/>
       <c r="AM487" s="109"/>
     </row>
-    <row r="488" spans="12:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="12:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L488" s="47" t="s">
         <v>13</v>
       </c>
@@ -21331,7 +21321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="489" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="489" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L489" s="56">
         <v>17.899999999999999</v>
       </c>
@@ -21405,7 +21395,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="490" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="490" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L490" s="58">
         <v>16</v>
       </c>
@@ -21479,7 +21469,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="491" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="491" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L491" s="58">
         <v>16</v>
       </c>
@@ -21553,7 +21543,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="492" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="492" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L492" s="58">
         <v>20.7</v>
       </c>
@@ -21627,7 +21617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="493" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L493" s="58">
         <v>24.7</v>
       </c>
@@ -21701,7 +21691,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="494" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="494" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L494" s="58">
         <v>24.7</v>
       </c>
@@ -21775,7 +21765,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="495" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="495" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L495" s="58">
         <v>22.6</v>
       </c>
@@ -21849,7 +21839,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="496" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="496" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L496" s="58">
         <v>22.6</v>
       </c>
@@ -21923,7 +21913,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="497" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="497" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L497" s="58">
         <v>25</v>
       </c>
@@ -21997,7 +21987,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="498" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="498" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L498" s="58">
         <v>29.9</v>
       </c>
@@ -22071,7 +22061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="499" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="499" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L499" s="58">
         <v>26.5</v>
       </c>
@@ -22145,7 +22135,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="500" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="500" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L500" s="58">
         <v>24.9</v>
       </c>
@@ -22219,7 +22209,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="501" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="501" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L501" s="58">
         <v>42.8</v>
       </c>
@@ -22293,7 +22283,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="502" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="502" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L502" s="58">
         <v>32.799999999999997</v>
       </c>
@@ -22367,7 +22357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="503" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="503" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L503" s="58">
         <v>33</v>
       </c>
@@ -22441,7 +22431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="504" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="504" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L504" s="58">
         <v>26.7</v>
       </c>
@@ -22515,7 +22505,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="505" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="505" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L505" s="58">
         <v>30.1</v>
       </c>
@@ -22589,7 +22579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="506" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="506" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L506" s="58">
         <v>46.6</v>
       </c>
@@ -22663,7 +22653,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="507" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="507" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L507" s="58">
         <v>38</v>
       </c>
@@ -22737,7 +22727,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="508" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="508" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L508" s="58">
         <v>32.1</v>
       </c>
@@ -22811,7 +22801,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="509" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="509" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L509" s="58">
         <v>38.9</v>
       </c>
@@ -22885,7 +22875,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="510" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="510" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L510" s="58">
         <v>38.9</v>
       </c>
@@ -22959,7 +22949,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="511" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="511" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L511" s="58">
         <v>36.9</v>
       </c>
@@ -23033,7 +23023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="512" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="512" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L512" s="58">
         <v>32.5</v>
       </c>
@@ -23107,7 +23097,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="513" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="513" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L513" s="58">
         <v>35.700000000000003</v>
       </c>
@@ -23181,7 +23171,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="514" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="514" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L514" s="58">
         <v>35.9</v>
       </c>
@@ -23255,7 +23245,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="515" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="515" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L515" s="58">
         <v>52.9</v>
       </c>
@@ -23327,7 +23317,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="516" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="516" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L516" s="58">
         <v>44.3</v>
       </c>
@@ -23399,7 +23389,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="517" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="517" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L517" s="58">
         <v>35.1</v>
       </c>
@@ -23471,7 +23461,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="518" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="518" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L518" s="58">
         <v>38.9</v>
       </c>
@@ -23541,7 +23531,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="519" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="519" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L519" s="58">
         <v>39.9</v>
       </c>
@@ -23611,7 +23601,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="520" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="520" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L520" s="58">
         <v>20.5</v>
       </c>
@@ -23681,7 +23671,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="521" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="521" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L521" s="58">
         <v>21.1</v>
       </c>
@@ -23751,7 +23741,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="522" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="522" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L522" s="58">
         <v>28.9</v>
       </c>
@@ -23821,7 +23811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="523" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="523" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L523" s="58">
         <v>32.200000000000003</v>
       </c>
@@ -23885,7 +23875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="524" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="524" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L524" s="58">
         <v>30.9</v>
       </c>
@@ -23947,7 +23937,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="525" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="525" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L525" s="58">
         <v>32.700000000000003</v>
       </c>
@@ -24009,7 +23999,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="526" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="526" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L526" s="58">
         <v>37.9</v>
       </c>
@@ -24071,7 +24061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="527" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="527" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L527" s="58">
         <v>26.1</v>
       </c>
@@ -24133,7 +24123,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="528" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="528" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L528" s="58">
         <v>26.2</v>
       </c>
@@ -24193,7 +24183,7 @@
       <c r="AH528" s="108"/>
       <c r="AI528" s="59"/>
     </row>
-    <row r="529" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="529" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L529" s="58">
         <v>35.799999999999997</v>
       </c>
@@ -24253,7 +24243,7 @@
       <c r="AH529" s="108"/>
       <c r="AI529" s="59"/>
     </row>
-    <row r="530" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="530" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L530" s="58">
         <v>35.799999999999997</v>
       </c>
@@ -24311,7 +24301,7 @@
       <c r="AH530" s="108"/>
       <c r="AI530" s="59"/>
     </row>
-    <row r="531" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="531" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L531" s="58">
         <v>33.299999999999997</v>
       </c>
@@ -24365,7 +24355,7 @@
       <c r="AH531" s="108"/>
       <c r="AI531" s="59"/>
     </row>
-    <row r="532" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="532" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L532" s="58">
         <v>28.9</v>
       </c>
@@ -24419,7 +24409,7 @@
       <c r="AH532" s="108"/>
       <c r="AI532" s="59"/>
     </row>
-    <row r="533" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="533" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L533" s="58">
         <v>37</v>
       </c>
@@ -24471,7 +24461,7 @@
       <c r="AH533" s="108"/>
       <c r="AI533" s="59"/>
     </row>
-    <row r="534" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="534" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L534" s="58">
         <v>30.6</v>
       </c>
@@ -24523,7 +24513,7 @@
       <c r="AH534" s="108"/>
       <c r="AI534" s="59"/>
     </row>
-    <row r="535" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="535" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L535" s="58">
         <v>24.3</v>
       </c>
@@ -24571,7 +24561,7 @@
       <c r="AH535" s="108"/>
       <c r="AI535" s="59"/>
     </row>
-    <row r="536" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="536" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L536" s="58">
         <v>33.799999999999997</v>
       </c>
@@ -24619,7 +24609,7 @@
       <c r="AH536" s="108"/>
       <c r="AI536" s="59"/>
     </row>
-    <row r="537" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="537" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L537" s="58">
         <v>31.6</v>
       </c>
@@ -24661,7 +24651,7 @@
       <c r="AH537" s="108"/>
       <c r="AI537" s="59"/>
     </row>
-    <row r="538" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="538" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L538" s="58">
         <v>28.6</v>
       </c>
@@ -24703,7 +24693,7 @@
       <c r="AH538" s="108"/>
       <c r="AI538" s="59"/>
     </row>
-    <row r="539" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="539" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L539" s="58">
         <v>40.6</v>
       </c>
@@ -24743,7 +24733,7 @@
       <c r="AH539" s="108"/>
       <c r="AI539" s="59"/>
     </row>
-    <row r="540" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="540" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L540" s="58"/>
       <c r="M540" s="108"/>
       <c r="N540" s="45"/>
@@ -24779,7 +24769,7 @@
       <c r="AH540" s="108"/>
       <c r="AI540" s="59"/>
     </row>
-    <row r="541" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="541" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L541" s="58"/>
       <c r="M541" s="108"/>
       <c r="N541" s="45"/>
@@ -24813,7 +24803,7 @@
       <c r="AH541" s="108"/>
       <c r="AI541" s="59"/>
     </row>
-    <row r="542" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="542" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L542" s="58"/>
       <c r="M542" s="108"/>
       <c r="N542" s="45"/>
@@ -24845,7 +24835,7 @@
       <c r="AH542" s="108"/>
       <c r="AI542" s="59"/>
     </row>
-    <row r="543" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="543" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L543" s="58"/>
       <c r="M543" s="108"/>
       <c r="N543" s="45"/>
@@ -24873,7 +24863,7 @@
       <c r="AH543" s="108"/>
       <c r="AI543" s="59"/>
     </row>
-    <row r="544" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="544" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L544" s="58"/>
       <c r="M544" s="108"/>
       <c r="N544" s="45"/>
@@ -24901,7 +24891,7 @@
       <c r="AH544" s="108"/>
       <c r="AI544" s="59"/>
     </row>
-    <row r="545" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="545" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L545" s="58"/>
       <c r="M545" s="108"/>
       <c r="N545" s="45"/>
@@ -24929,7 +24919,7 @@
       <c r="AH545" s="108"/>
       <c r="AI545" s="59"/>
     </row>
-    <row r="546" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="546" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L546" s="58"/>
       <c r="M546" s="108"/>
       <c r="N546" s="45"/>
@@ -24957,7 +24947,7 @@
       <c r="AH546" s="108"/>
       <c r="AI546" s="59"/>
     </row>
-    <row r="547" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="547" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L547" s="58"/>
       <c r="M547" s="108"/>
       <c r="N547" s="45"/>
@@ -24985,7 +24975,7 @@
       <c r="AH547" s="108"/>
       <c r="AI547" s="59"/>
     </row>
-    <row r="548" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="548" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L548" s="58"/>
       <c r="M548" s="108"/>
       <c r="N548" s="45"/>
@@ -25013,7 +25003,7 @@
       <c r="AH548" s="108"/>
       <c r="AI548" s="59"/>
     </row>
-    <row r="549" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="549" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L549" s="58"/>
       <c r="M549" s="108"/>
       <c r="N549" s="45"/>
@@ -25041,7 +25031,7 @@
       <c r="AH549" s="108"/>
       <c r="AI549" s="59"/>
     </row>
-    <row r="550" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="550" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L550" s="58"/>
       <c r="M550" s="108"/>
       <c r="N550" s="45"/>
@@ -25069,7 +25059,7 @@
       <c r="AH550" s="108"/>
       <c r="AI550" s="59"/>
     </row>
-    <row r="551" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="551" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L551" s="58"/>
       <c r="M551" s="108"/>
       <c r="N551" s="45"/>
@@ -25097,7 +25087,7 @@
       <c r="AH551" s="108"/>
       <c r="AI551" s="59"/>
     </row>
-    <row r="552" spans="12:39" x14ac:dyDescent="0.35">
+    <row r="552" spans="12:39" x14ac:dyDescent="0.25">
       <c r="L552" s="58"/>
       <c r="M552" s="108"/>
       <c r="N552" s="45"/>
@@ -25125,7 +25115,7 @@
       <c r="AH552" s="108"/>
       <c r="AI552" s="59"/>
     </row>
-    <row r="553" spans="12:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="553" spans="12:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L553" s="60"/>
       <c r="M553" s="61"/>
       <c r="N553" s="62"/>
@@ -25153,12 +25143,12 @@
       <c r="AH553" s="61"/>
       <c r="AI553" s="63"/>
     </row>
-    <row r="558" spans="12:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L558" s="207" t="s">
+    <row r="558" spans="12:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L558" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="M558" s="207"/>
-      <c r="N558" s="207"/>
+      <c r="M558" s="203"/>
+      <c r="N558" s="203"/>
       <c r="O558" s="204"/>
       <c r="P558" s="204"/>
       <c r="Q558" s="204"/>
@@ -25168,72 +25158,72 @@
       <c r="U558" s="204"/>
       <c r="V558" s="204"/>
       <c r="W558" s="204"/>
-      <c r="X558" s="207"/>
-      <c r="Y558" s="207"/>
-      <c r="Z558" s="207"/>
-      <c r="AA558" s="207"/>
-      <c r="AB558" s="207"/>
-      <c r="AC558" s="207"/>
-      <c r="AD558" s="207"/>
-      <c r="AE558" s="207"/>
-      <c r="AF558" s="207"/>
-      <c r="AG558" s="207"/>
-      <c r="AH558" s="207"/>
-      <c r="AI558" s="207"/>
-      <c r="AK558" s="220" t="s">
+      <c r="X558" s="203"/>
+      <c r="Y558" s="203"/>
+      <c r="Z558" s="203"/>
+      <c r="AA558" s="203"/>
+      <c r="AB558" s="203"/>
+      <c r="AC558" s="203"/>
+      <c r="AD558" s="203"/>
+      <c r="AE558" s="203"/>
+      <c r="AF558" s="203"/>
+      <c r="AG558" s="203"/>
+      <c r="AH558" s="203"/>
+      <c r="AI558" s="203"/>
+      <c r="AK558" s="227" t="s">
         <v>59</v>
       </c>
-      <c r="AL558" s="220"/>
-      <c r="AM558" s="220"/>
-    </row>
-    <row r="559" spans="12:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L559" s="208" t="s">
+      <c r="AL558" s="227"/>
+      <c r="AM558" s="227"/>
+    </row>
+    <row r="559" spans="12:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L559" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="M559" s="209"/>
-      <c r="N559" s="210"/>
+      <c r="M559" s="206"/>
+      <c r="N559" s="207"/>
       <c r="O559" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="P559" s="192"/>
-      <c r="Q559" s="193"/>
+      <c r="P559" s="195"/>
+      <c r="Q559" s="196"/>
       <c r="R559" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="S559" s="192"/>
-      <c r="T559" s="193"/>
-      <c r="U559" s="211" t="s">
+      <c r="S559" s="195"/>
+      <c r="T559" s="196"/>
+      <c r="U559" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="V559" s="212"/>
-      <c r="W559" s="213"/>
-      <c r="X559" s="208" t="s">
+      <c r="V559" s="209"/>
+      <c r="W559" s="210"/>
+      <c r="X559" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="Y559" s="209"/>
-      <c r="Z559" s="214"/>
-      <c r="AA559" s="208" t="s">
+      <c r="Y559" s="206"/>
+      <c r="Z559" s="211"/>
+      <c r="AA559" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="AB559" s="209"/>
-      <c r="AC559" s="214"/>
-      <c r="AD559" s="215" t="s">
+      <c r="AB559" s="206"/>
+      <c r="AC559" s="211"/>
+      <c r="AD559" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AE559" s="216"/>
-      <c r="AF559" s="216"/>
-      <c r="AG559" s="208" t="s">
+      <c r="AE559" s="213"/>
+      <c r="AF559" s="213"/>
+      <c r="AG559" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="AH559" s="209"/>
-      <c r="AI559" s="217"/>
-      <c r="AK559" s="218" t="s">
+      <c r="AH559" s="206"/>
+      <c r="AI559" s="214"/>
+      <c r="AK559" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="AL559" s="218"/>
+      <c r="AL559" s="225"/>
       <c r="AM559" s="109"/>
     </row>
-    <row r="560" spans="12:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="560" spans="12:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L560" s="70" t="s">
         <v>13</v>
       </c>
@@ -25307,7 +25297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="561" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="561" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L561" s="81">
         <v>17.399999999999999</v>
       </c>
@@ -25381,7 +25371,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="562" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="562" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L562" s="85">
         <v>16.399999999999999</v>
       </c>
@@ -25455,7 +25445,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="563" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="563" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L563" s="85">
         <v>19.600000000000001</v>
       </c>
@@ -25529,7 +25519,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="564" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="564" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L564" s="85">
         <v>19.600000000000001</v>
       </c>
@@ -25603,7 +25593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="565" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="565" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L565" s="85">
         <v>18.100000000000001</v>
       </c>
@@ -25677,7 +25667,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="566" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="566" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L566" s="85">
         <v>27.3</v>
       </c>
@@ -25751,7 +25741,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="567" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="567" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L567" s="85">
         <v>23.4</v>
       </c>
@@ -25823,7 +25813,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="568" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="568" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L568" s="85">
         <v>23.1</v>
       </c>
@@ -25895,7 +25885,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="569" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="569" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L569" s="85">
         <v>23</v>
       </c>
@@ -25967,7 +25957,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="570" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="570" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L570" s="85">
         <v>25.3</v>
       </c>
@@ -26039,7 +26029,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="571" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="571" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L571" s="85">
         <v>31.8</v>
       </c>
@@ -26111,7 +26101,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="572" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="572" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L572" s="85">
         <v>26.2</v>
       </c>
@@ -26183,7 +26173,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="573" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="573" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L573" s="85">
         <v>26.5</v>
       </c>
@@ -26255,7 +26245,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="574" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="574" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L574" s="85">
         <v>44.6</v>
       </c>
@@ -26327,7 +26317,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="575" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="575" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L575" s="85">
         <v>9.9</v>
       </c>
@@ -26399,7 +26389,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="576" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="576" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L576" s="85">
         <v>7.6</v>
       </c>
@@ -26471,7 +26461,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="577" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="577" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L577" s="85">
         <v>34.6</v>
       </c>
@@ -26543,7 +26533,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="578" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="578" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L578" s="85">
         <v>33.299999999999997</v>
       </c>
@@ -26615,7 +26605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="579" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="579" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L579" s="85">
         <v>30.1</v>
       </c>
@@ -26687,7 +26677,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="580" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="580" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L580" s="85">
         <v>32.4</v>
       </c>
@@ -26759,7 +26749,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="581" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="581" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L581" s="85">
         <v>48.1</v>
       </c>
@@ -26831,7 +26821,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="582" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="582" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L582" s="85">
         <v>42.3</v>
       </c>
@@ -26903,7 +26893,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="583" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="583" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L583" s="85">
         <v>44.8</v>
       </c>
@@ -26975,7 +26965,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="584" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="584" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L584" s="85">
         <v>40.5</v>
       </c>
@@ -27047,7 +27037,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="585" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="585" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L585" s="85">
         <v>10.199999999999999</v>
       </c>
@@ -27119,7 +27109,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="586" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="586" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L586" s="85">
         <v>8.1</v>
       </c>
@@ -27191,7 +27181,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="587" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="587" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L587" s="85">
         <v>48</v>
       </c>
@@ -27263,7 +27253,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="588" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="588" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L588" s="85">
         <v>35.200000000000003</v>
       </c>
@@ -27335,7 +27325,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="589" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="589" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L589" s="85">
         <v>35.799999999999997</v>
       </c>
@@ -27407,7 +27397,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="590" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="590" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L590" s="85">
         <v>43.6</v>
       </c>
@@ -27479,7 +27469,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="591" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="591" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L591" s="85">
         <v>42.3</v>
       </c>
@@ -27551,7 +27541,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="592" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="592" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L592" s="85">
         <v>10.5</v>
       </c>
@@ -27623,7 +27613,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="593" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="593" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L593" s="85">
         <v>8.4</v>
       </c>
@@ -27693,7 +27683,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="594" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="594" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L594" s="85">
         <v>24.7</v>
       </c>
@@ -27763,7 +27753,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="595" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="595" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L595" s="85">
         <v>21.4</v>
       </c>
@@ -27831,7 +27821,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="596" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="596" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L596" s="85">
         <v>38.200000000000003</v>
       </c>
@@ -27899,7 +27889,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="597" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="597" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L597" s="85">
         <v>33.9</v>
       </c>
@@ -27967,7 +27957,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="598" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="598" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L598" s="85">
         <v>33.9</v>
       </c>
@@ -28035,7 +28025,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="599" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="599" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L599" s="85">
         <v>8.6999999999999993</v>
       </c>
@@ -28103,7 +28093,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="600" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="600" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L600" s="85">
         <v>9.1</v>
       </c>
@@ -28171,7 +28161,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="601" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="601" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L601" s="85">
         <v>32.700000000000003</v>
       </c>
@@ -28239,7 +28229,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="602" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="602" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L602" s="85">
         <v>33.9</v>
       </c>
@@ -28307,7 +28297,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="603" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="603" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L603" s="85">
         <v>13.4</v>
       </c>
@@ -28371,7 +28361,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="604" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="604" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L604" s="85">
         <v>15.8</v>
       </c>
@@ -28433,7 +28423,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="605" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="605" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L605" s="85">
         <v>40.700000000000003</v>
       </c>
@@ -28495,7 +28485,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="606" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="606" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L606" s="85">
         <v>36.299999999999997</v>
       </c>
@@ -28555,7 +28545,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="607" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="607" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L607" s="85">
         <v>31.8</v>
       </c>
@@ -28615,7 +28605,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="608" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="608" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L608" s="85">
         <v>16.3</v>
       </c>
@@ -28673,7 +28663,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="609" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="609" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L609" s="85">
         <v>36.299999999999997</v>
       </c>
@@ -28729,7 +28719,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="610" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="610" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L610" s="85">
         <v>31.8</v>
       </c>
@@ -28785,7 +28775,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="611" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="611" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L611" s="85">
         <v>16.3</v>
       </c>
@@ -28839,7 +28829,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="612" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="612" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L612" s="85">
         <v>13.3</v>
       </c>
@@ -28891,7 +28881,7 @@
       <c r="AH612" s="108"/>
       <c r="AI612" s="33"/>
     </row>
-    <row r="613" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="613" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L613" s="85">
         <v>39.700000000000003</v>
       </c>
@@ -28941,7 +28931,7 @@
       <c r="AH613" s="108"/>
       <c r="AI613" s="33"/>
     </row>
-    <row r="614" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="614" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L614" s="85">
         <v>39.700000000000003</v>
       </c>
@@ -28989,7 +28979,7 @@
       <c r="AH614" s="108"/>
       <c r="AI614" s="33"/>
     </row>
-    <row r="615" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="615" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L615" s="85">
         <v>27</v>
       </c>
@@ -29035,7 +29025,7 @@
       <c r="AH615" s="108"/>
       <c r="AI615" s="33"/>
     </row>
-    <row r="616" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="616" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L616" s="85">
         <v>28.8</v>
       </c>
@@ -29081,7 +29071,7 @@
       <c r="AH616" s="108"/>
       <c r="AI616" s="33"/>
     </row>
-    <row r="617" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="617" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L617" s="85">
         <v>47.5</v>
       </c>
@@ -29125,7 +29115,7 @@
       <c r="AH617" s="108"/>
       <c r="AI617" s="33"/>
     </row>
-    <row r="618" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="618" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L618" s="85">
         <v>31.6</v>
       </c>
@@ -29169,7 +29159,7 @@
       <c r="AH618" s="108"/>
       <c r="AI618" s="33"/>
     </row>
-    <row r="619" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="619" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L619" s="85">
         <v>35.700000000000003</v>
       </c>
@@ -29213,7 +29203,7 @@
       <c r="AH619" s="108"/>
       <c r="AI619" s="33"/>
     </row>
-    <row r="620" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="620" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L620" s="85">
         <v>36.799999999999997</v>
       </c>
@@ -29255,7 +29245,7 @@
       <c r="AH620" s="108"/>
       <c r="AI620" s="33"/>
     </row>
-    <row r="621" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="621" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L621" s="85">
         <v>36.9</v>
       </c>
@@ -29295,7 +29285,7 @@
       <c r="AH621" s="108"/>
       <c r="AI621" s="33"/>
     </row>
-    <row r="622" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="622" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L622" s="85">
         <v>26.2</v>
       </c>
@@ -29335,7 +29325,7 @@
       <c r="AH622" s="108"/>
       <c r="AI622" s="33"/>
     </row>
-    <row r="623" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="623" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L623" s="88">
         <v>35.9</v>
       </c>
@@ -29371,7 +29361,7 @@
       <c r="AH623" s="23"/>
       <c r="AI623" s="41"/>
     </row>
-    <row r="624" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="624" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L624" s="39">
         <v>28.7</v>
       </c>
@@ -29407,7 +29397,7 @@
       <c r="AH624" s="2"/>
       <c r="AI624" s="106"/>
     </row>
-    <row r="625" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="625" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L625" s="39">
         <v>32.1</v>
       </c>
@@ -29443,7 +29433,7 @@
       <c r="AH625" s="2"/>
       <c r="AI625" s="106"/>
     </row>
-    <row r="626" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="626" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L626" s="39">
         <v>37.9</v>
       </c>
@@ -29479,7 +29469,7 @@
       <c r="AH626" s="2"/>
       <c r="AI626" s="106"/>
     </row>
-    <row r="627" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="627" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L627" s="39">
         <v>41.1</v>
       </c>
@@ -29515,7 +29505,7 @@
       <c r="AH627" s="2"/>
       <c r="AI627" s="106"/>
     </row>
-    <row r="628" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="628" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L628" s="39">
         <v>20.2</v>
       </c>
@@ -29551,7 +29541,7 @@
       <c r="AH628" s="2"/>
       <c r="AI628" s="106"/>
     </row>
-    <row r="629" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="629" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L629" s="39">
         <v>29.5</v>
       </c>
@@ -29585,7 +29575,7 @@
       <c r="AH629" s="2"/>
       <c r="AI629" s="106"/>
     </row>
-    <row r="630" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="630" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L630" s="39">
         <v>39.299999999999997</v>
       </c>
@@ -29619,7 +29609,7 @@
       <c r="AH630" s="2"/>
       <c r="AI630" s="106"/>
     </row>
-    <row r="631" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="631" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L631" s="39">
         <v>29.7</v>
       </c>
@@ -29653,7 +29643,7 @@
       <c r="AH631" s="2"/>
       <c r="AI631" s="106"/>
     </row>
-    <row r="632" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="632" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L632" s="39">
         <v>29.7</v>
       </c>
@@ -29687,7 +29677,7 @@
       <c r="AH632" s="2"/>
       <c r="AI632" s="106"/>
     </row>
-    <row r="633" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="633" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L633" s="39">
         <v>12</v>
       </c>
@@ -29721,7 +29711,7 @@
       <c r="AH633" s="2"/>
       <c r="AI633" s="106"/>
     </row>
-    <row r="634" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="634" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L634" s="39">
         <v>10.5</v>
       </c>
@@ -29753,7 +29743,7 @@
       <c r="AH634" s="2"/>
       <c r="AI634" s="106"/>
     </row>
-    <row r="635" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="635" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L635" s="39">
         <v>25.1</v>
       </c>
@@ -29785,7 +29775,7 @@
       <c r="AH635" s="2"/>
       <c r="AI635" s="106"/>
     </row>
-    <row r="636" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="636" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L636" s="39">
         <v>27.5</v>
       </c>
@@ -29817,7 +29807,7 @@
       <c r="AH636" s="2"/>
       <c r="AI636" s="106"/>
     </row>
-    <row r="637" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="637" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L637" s="39">
         <v>37.299999999999997</v>
       </c>
@@ -29849,7 +29839,7 @@
       <c r="AH637" s="2"/>
       <c r="AI637" s="106"/>
     </row>
-    <row r="638" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="638" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L638" s="39">
         <v>37.299999999999997</v>
       </c>
@@ -29881,7 +29871,7 @@
       <c r="AH638" s="2"/>
       <c r="AI638" s="106"/>
     </row>
-    <row r="639" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="639" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L639" s="39">
         <v>34.5</v>
       </c>
@@ -29913,7 +29903,7 @@
       <c r="AH639" s="2"/>
       <c r="AI639" s="106"/>
     </row>
-    <row r="640" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="640" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L640" s="39">
         <v>14.5</v>
       </c>
@@ -29945,7 +29935,7 @@
       <c r="AH640" s="2"/>
       <c r="AI640" s="106"/>
     </row>
-    <row r="641" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="641" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L641" s="39">
         <v>12.9</v>
       </c>
@@ -29977,7 +29967,7 @@
       <c r="AH641" s="2"/>
       <c r="AI641" s="106"/>
     </row>
-    <row r="642" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="642" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L642" s="39">
         <v>43.1</v>
       </c>
@@ -30009,7 +29999,7 @@
       <c r="AH642" s="2"/>
       <c r="AI642" s="106"/>
     </row>
-    <row r="643" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="643" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L643" s="39">
         <v>32.4</v>
       </c>
@@ -30041,7 +30031,7 @@
       <c r="AH643" s="2"/>
       <c r="AI643" s="106"/>
     </row>
-    <row r="644" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="644" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L644" s="39">
         <v>13.3</v>
       </c>
@@ -30073,7 +30063,7 @@
       <c r="AH644" s="2"/>
       <c r="AI644" s="106"/>
     </row>
-    <row r="645" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="645" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L645" s="39">
         <v>13.3</v>
       </c>
@@ -30105,7 +30095,7 @@
       <c r="AH645" s="2"/>
       <c r="AI645" s="106"/>
     </row>
-    <row r="646" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="646" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L646" s="39">
         <v>40.5</v>
       </c>
@@ -30137,7 +30127,7 @@
       <c r="AH646" s="2"/>
       <c r="AI646" s="106"/>
     </row>
-    <row r="647" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="647" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L647" s="39">
         <v>30.5</v>
       </c>
@@ -30167,7 +30157,7 @@
       <c r="AH647" s="2"/>
       <c r="AI647" s="106"/>
     </row>
-    <row r="648" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="648" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L648" s="39">
         <v>29.4</v>
       </c>
@@ -30197,7 +30187,7 @@
       <c r="AH648" s="2"/>
       <c r="AI648" s="106"/>
     </row>
-    <row r="649" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="649" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L649" s="39">
         <v>11.5</v>
       </c>
@@ -30227,7 +30217,7 @@
       <c r="AH649" s="2"/>
       <c r="AI649" s="106"/>
     </row>
-    <row r="650" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="650" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L650" s="39">
         <v>11.5</v>
       </c>
@@ -30255,7 +30245,7 @@
       <c r="AH650" s="2"/>
       <c r="AI650" s="106"/>
     </row>
-    <row r="651" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="651" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L651" s="39">
         <v>25.9</v>
       </c>
@@ -30283,7 +30273,7 @@
       <c r="AH651" s="2"/>
       <c r="AI651" s="106"/>
     </row>
-    <row r="652" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="652" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L652" s="39">
         <v>28.6</v>
       </c>
@@ -30311,7 +30301,7 @@
       <c r="AH652" s="2"/>
       <c r="AI652" s="106"/>
     </row>
-    <row r="653" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="653" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L653" s="39">
         <v>40.299999999999997</v>
       </c>
@@ -30339,7 +30329,7 @@
       <c r="AH653" s="2"/>
       <c r="AI653" s="106"/>
     </row>
-    <row r="654" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="654" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L654" s="39">
         <v>21.1</v>
       </c>
@@ -30367,7 +30357,7 @@
       <c r="AH654" s="2"/>
       <c r="AI654" s="106"/>
     </row>
-    <row r="655" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="655" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L655" s="39">
         <v>19.8</v>
       </c>
@@ -30395,7 +30385,7 @@
       <c r="AH655" s="2"/>
       <c r="AI655" s="106"/>
     </row>
-    <row r="656" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="656" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L656" s="39">
         <v>17.8</v>
       </c>
@@ -30423,7 +30413,7 @@
       <c r="AH656" s="2"/>
       <c r="AI656" s="106"/>
     </row>
-    <row r="657" spans="12:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="657" spans="12:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L657" s="40">
         <v>17.8</v>
       </c>
@@ -30451,78 +30441,78 @@
       <c r="AH657" s="6"/>
       <c r="AI657" s="107"/>
     </row>
-    <row r="661" spans="12:35" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="662" spans="12:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L662" s="201" t="s">
+    <row r="661" spans="12:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="662" spans="12:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L662" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="M662" s="202"/>
-      <c r="N662" s="202"/>
-      <c r="O662" s="202"/>
-      <c r="P662" s="202"/>
-      <c r="Q662" s="202"/>
-      <c r="R662" s="202"/>
-      <c r="S662" s="202"/>
-      <c r="T662" s="202"/>
-      <c r="U662" s="202"/>
-      <c r="V662" s="202"/>
-      <c r="W662" s="202"/>
-      <c r="X662" s="202"/>
-      <c r="Y662" s="202"/>
-      <c r="Z662" s="202"/>
-      <c r="AA662" s="202"/>
-      <c r="AB662" s="202"/>
-      <c r="AC662" s="202"/>
-      <c r="AD662" s="202"/>
-      <c r="AE662" s="202"/>
-      <c r="AF662" s="202"/>
-      <c r="AG662" s="202"/>
-      <c r="AH662" s="202"/>
-      <c r="AI662" s="203"/>
-    </row>
-    <row r="663" spans="12:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L663" s="191" t="s">
+      <c r="M662" s="192"/>
+      <c r="N662" s="192"/>
+      <c r="O662" s="192"/>
+      <c r="P662" s="192"/>
+      <c r="Q662" s="192"/>
+      <c r="R662" s="192"/>
+      <c r="S662" s="192"/>
+      <c r="T662" s="192"/>
+      <c r="U662" s="192"/>
+      <c r="V662" s="192"/>
+      <c r="W662" s="192"/>
+      <c r="X662" s="192"/>
+      <c r="Y662" s="192"/>
+      <c r="Z662" s="192"/>
+      <c r="AA662" s="192"/>
+      <c r="AB662" s="192"/>
+      <c r="AC662" s="192"/>
+      <c r="AD662" s="192"/>
+      <c r="AE662" s="192"/>
+      <c r="AF662" s="192"/>
+      <c r="AG662" s="192"/>
+      <c r="AH662" s="192"/>
+      <c r="AI662" s="193"/>
+    </row>
+    <row r="663" spans="12:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L663" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="M663" s="192"/>
-      <c r="N663" s="193"/>
+      <c r="M663" s="195"/>
+      <c r="N663" s="196"/>
       <c r="O663" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="P663" s="192"/>
-      <c r="Q663" s="193"/>
+      <c r="P663" s="195"/>
+      <c r="Q663" s="196"/>
       <c r="R663" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="S663" s="192"/>
-      <c r="T663" s="193"/>
+      <c r="S663" s="195"/>
+      <c r="T663" s="196"/>
       <c r="U663" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="V663" s="192"/>
+      <c r="V663" s="195"/>
       <c r="W663" s="198"/>
       <c r="X663" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="Y663" s="192"/>
-      <c r="Z663" s="193"/>
-      <c r="AA663" s="191" t="s">
+      <c r="Y663" s="195"/>
+      <c r="Z663" s="196"/>
+      <c r="AA663" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="AB663" s="192"/>
-      <c r="AC663" s="193"/>
-      <c r="AD663" s="194" t="s">
+      <c r="AB663" s="195"/>
+      <c r="AC663" s="196"/>
+      <c r="AD663" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AE663" s="195"/>
-      <c r="AF663" s="195"/>
-      <c r="AG663" s="191" t="s">
+      <c r="AE663" s="201"/>
+      <c r="AF663" s="201"/>
+      <c r="AG663" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="AH663" s="192"/>
-      <c r="AI663" s="196"/>
-    </row>
-    <row r="664" spans="12:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH663" s="195"/>
+      <c r="AI663" s="202"/>
+    </row>
+    <row r="664" spans="12:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L664" s="70" t="s">
         <v>13</v>
       </c>
@@ -30596,7 +30586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="665" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="665" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L665" s="81"/>
       <c r="M665" s="22"/>
       <c r="N665" s="44"/>
@@ -30622,7 +30612,7 @@
       <c r="AH665" s="22"/>
       <c r="AI665" s="34"/>
     </row>
-    <row r="666" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="666" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L666" s="85"/>
       <c r="M666" s="108"/>
       <c r="N666" s="45"/>
@@ -30648,7 +30638,7 @@
       <c r="AH666" s="108"/>
       <c r="AI666" s="33"/>
     </row>
-    <row r="667" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="667" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L667" s="85"/>
       <c r="M667" s="108"/>
       <c r="N667" s="45"/>
@@ -30674,7 +30664,7 @@
       <c r="AH667" s="108"/>
       <c r="AI667" s="33"/>
     </row>
-    <row r="668" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="668" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L668" s="85"/>
       <c r="M668" s="108"/>
       <c r="N668" s="45"/>
@@ -30700,7 +30690,7 @@
       <c r="AH668" s="108"/>
       <c r="AI668" s="33"/>
     </row>
-    <row r="669" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="669" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L669" s="85"/>
       <c r="M669" s="108"/>
       <c r="N669" s="45"/>
@@ -30726,7 +30716,7 @@
       <c r="AH669" s="108"/>
       <c r="AI669" s="33"/>
     </row>
-    <row r="670" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="670" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L670" s="85"/>
       <c r="M670" s="108"/>
       <c r="N670" s="45"/>
@@ -30752,7 +30742,7 @@
       <c r="AH670" s="108"/>
       <c r="AI670" s="33"/>
     </row>
-    <row r="671" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="671" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L671" s="85"/>
       <c r="M671" s="108"/>
       <c r="N671" s="45"/>
@@ -30778,7 +30768,7 @@
       <c r="AH671" s="108"/>
       <c r="AI671" s="33"/>
     </row>
-    <row r="672" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="672" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L672" s="85"/>
       <c r="M672" s="108"/>
       <c r="N672" s="45"/>
@@ -30806,7 +30796,7 @@
       <c r="AH672" s="108"/>
       <c r="AI672" s="33"/>
     </row>
-    <row r="673" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="673" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L673" s="85"/>
       <c r="M673" s="108"/>
       <c r="N673" s="45"/>
@@ -30832,7 +30822,7 @@
       <c r="AH673" s="108"/>
       <c r="AI673" s="33"/>
     </row>
-    <row r="674" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="674" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L674" s="85"/>
       <c r="M674" s="108"/>
       <c r="N674" s="45"/>
@@ -30858,7 +30848,7 @@
       <c r="AH674" s="108"/>
       <c r="AI674" s="33"/>
     </row>
-    <row r="675" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="675" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L675" s="85"/>
       <c r="M675" s="108"/>
       <c r="N675" s="45"/>
@@ -30884,7 +30874,7 @@
       <c r="AH675" s="108"/>
       <c r="AI675" s="33"/>
     </row>
-    <row r="676" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="676" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L676" s="85"/>
       <c r="M676" s="108"/>
       <c r="N676" s="45"/>
@@ -30910,7 +30900,7 @@
       <c r="AH676" s="108"/>
       <c r="AI676" s="33"/>
     </row>
-    <row r="677" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="677" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L677" s="85"/>
       <c r="M677" s="108"/>
       <c r="N677" s="45"/>
@@ -30936,7 +30926,7 @@
       <c r="AH677" s="108"/>
       <c r="AI677" s="33"/>
     </row>
-    <row r="678" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="678" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L678" s="85"/>
       <c r="M678" s="108"/>
       <c r="N678" s="45"/>
@@ -30962,7 +30952,7 @@
       <c r="AH678" s="108"/>
       <c r="AI678" s="33"/>
     </row>
-    <row r="679" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="679" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L679" s="85"/>
       <c r="M679" s="108"/>
       <c r="N679" s="45"/>
@@ -30988,7 +30978,7 @@
       <c r="AH679" s="108"/>
       <c r="AI679" s="33"/>
     </row>
-    <row r="680" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="680" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L680" s="85"/>
       <c r="M680" s="108"/>
       <c r="N680" s="45"/>
@@ -31014,7 +31004,7 @@
       <c r="AH680" s="108"/>
       <c r="AI680" s="33"/>
     </row>
-    <row r="681" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="681" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L681" s="85"/>
       <c r="M681" s="108"/>
       <c r="N681" s="45"/>
@@ -31040,7 +31030,7 @@
       <c r="AH681" s="108"/>
       <c r="AI681" s="33"/>
     </row>
-    <row r="682" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="682" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L682" s="85"/>
       <c r="M682" s="108"/>
       <c r="N682" s="45"/>
@@ -31066,7 +31056,7 @@
       <c r="AH682" s="108"/>
       <c r="AI682" s="33"/>
     </row>
-    <row r="683" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="683" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L683" s="85"/>
       <c r="M683" s="108"/>
       <c r="N683" s="45"/>
@@ -31092,7 +31082,7 @@
       <c r="AH683" s="108"/>
       <c r="AI683" s="33"/>
     </row>
-    <row r="684" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="684" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L684" s="85"/>
       <c r="M684" s="108"/>
       <c r="N684" s="45"/>
@@ -31118,7 +31108,7 @@
       <c r="AH684" s="108"/>
       <c r="AI684" s="33"/>
     </row>
-    <row r="685" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="685" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L685" s="85"/>
       <c r="M685" s="108"/>
       <c r="N685" s="45"/>
@@ -31144,7 +31134,7 @@
       <c r="AH685" s="108"/>
       <c r="AI685" s="33"/>
     </row>
-    <row r="686" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="686" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L686" s="85"/>
       <c r="M686" s="108"/>
       <c r="N686" s="45"/>
@@ -31170,7 +31160,7 @@
       <c r="AH686" s="108"/>
       <c r="AI686" s="33"/>
     </row>
-    <row r="687" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="687" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L687" s="85"/>
       <c r="M687" s="108"/>
       <c r="N687" s="45"/>
@@ -31196,7 +31186,7 @@
       <c r="AH687" s="108"/>
       <c r="AI687" s="33"/>
     </row>
-    <row r="688" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="688" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L688" s="85"/>
       <c r="M688" s="108"/>
       <c r="N688" s="45"/>
@@ -31222,7 +31212,7 @@
       <c r="AH688" s="108"/>
       <c r="AI688" s="33"/>
     </row>
-    <row r="689" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="689" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L689" s="85"/>
       <c r="M689" s="108"/>
       <c r="N689" s="45"/>
@@ -31248,7 +31238,7 @@
       <c r="AH689" s="108"/>
       <c r="AI689" s="33"/>
     </row>
-    <row r="690" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="690" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L690" s="85"/>
       <c r="M690" s="108"/>
       <c r="N690" s="45"/>
@@ -31274,7 +31264,7 @@
       <c r="AH690" s="108"/>
       <c r="AI690" s="33"/>
     </row>
-    <row r="691" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="691" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L691" s="85"/>
       <c r="M691" s="108"/>
       <c r="N691" s="45"/>
@@ -31300,7 +31290,7 @@
       <c r="AH691" s="108"/>
       <c r="AI691" s="33"/>
     </row>
-    <row r="692" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="692" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L692" s="85"/>
       <c r="M692" s="108"/>
       <c r="N692" s="45"/>
@@ -31326,7 +31316,7 @@
       <c r="AH692" s="108"/>
       <c r="AI692" s="33"/>
     </row>
-    <row r="693" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="693" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L693" s="85"/>
       <c r="M693" s="108"/>
       <c r="N693" s="45"/>
@@ -31352,7 +31342,7 @@
       <c r="AH693" s="108"/>
       <c r="AI693" s="33"/>
     </row>
-    <row r="694" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="694" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L694" s="85"/>
       <c r="M694" s="108"/>
       <c r="N694" s="45"/>
@@ -31378,7 +31368,7 @@
       <c r="AH694" s="108"/>
       <c r="AI694" s="33"/>
     </row>
-    <row r="695" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="695" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L695" s="85"/>
       <c r="M695" s="108"/>
       <c r="N695" s="45"/>
@@ -31404,7 +31394,7 @@
       <c r="AH695" s="108"/>
       <c r="AI695" s="33"/>
     </row>
-    <row r="696" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="696" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L696" s="85"/>
       <c r="M696" s="108"/>
       <c r="N696" s="45"/>
@@ -31430,7 +31420,7 @@
       <c r="AH696" s="108"/>
       <c r="AI696" s="33"/>
     </row>
-    <row r="697" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="697" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L697" s="85"/>
       <c r="M697" s="108"/>
       <c r="N697" s="45"/>
@@ -31456,7 +31446,7 @@
       <c r="AH697" s="108"/>
       <c r="AI697" s="33"/>
     </row>
-    <row r="698" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="698" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L698" s="85"/>
       <c r="M698" s="108"/>
       <c r="N698" s="45"/>
@@ -31482,7 +31472,7 @@
       <c r="AH698" s="108"/>
       <c r="AI698" s="33"/>
     </row>
-    <row r="699" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="699" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L699" s="85"/>
       <c r="M699" s="108"/>
       <c r="N699" s="45"/>
@@ -31508,7 +31498,7 @@
       <c r="AH699" s="108"/>
       <c r="AI699" s="33"/>
     </row>
-    <row r="700" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="700" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L700" s="85"/>
       <c r="M700" s="108"/>
       <c r="N700" s="45"/>
@@ -31534,7 +31524,7 @@
       <c r="AH700" s="108"/>
       <c r="AI700" s="33"/>
     </row>
-    <row r="701" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="701" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L701" s="85"/>
       <c r="M701" s="108"/>
       <c r="N701" s="45"/>
@@ -31560,7 +31550,7 @@
       <c r="AH701" s="108"/>
       <c r="AI701" s="33"/>
     </row>
-    <row r="702" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="702" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L702" s="85"/>
       <c r="M702" s="108"/>
       <c r="N702" s="45"/>
@@ -31586,7 +31576,7 @@
       <c r="AH702" s="108"/>
       <c r="AI702" s="33"/>
     </row>
-    <row r="703" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="703" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L703" s="85"/>
       <c r="M703" s="108"/>
       <c r="N703" s="45"/>
@@ -31612,7 +31602,7 @@
       <c r="AH703" s="108"/>
       <c r="AI703" s="33"/>
     </row>
-    <row r="704" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="704" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L704" s="85"/>
       <c r="M704" s="108"/>
       <c r="N704" s="45"/>
@@ -31638,7 +31628,7 @@
       <c r="AH704" s="108"/>
       <c r="AI704" s="33"/>
     </row>
-    <row r="705" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="705" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L705" s="85"/>
       <c r="M705" s="108"/>
       <c r="N705" s="45"/>
@@ -31664,7 +31654,7 @@
       <c r="AH705" s="108"/>
       <c r="AI705" s="33"/>
     </row>
-    <row r="706" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="706" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L706" s="85"/>
       <c r="M706" s="108"/>
       <c r="N706" s="45"/>
@@ -31690,7 +31680,7 @@
       <c r="AH706" s="108"/>
       <c r="AI706" s="33"/>
     </row>
-    <row r="707" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="707" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L707" s="85"/>
       <c r="M707" s="108"/>
       <c r="N707" s="45"/>
@@ -31716,7 +31706,7 @@
       <c r="AH707" s="108"/>
       <c r="AI707" s="33"/>
     </row>
-    <row r="708" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="708" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L708" s="85"/>
       <c r="M708" s="108"/>
       <c r="N708" s="45"/>
@@ -31742,7 +31732,7 @@
       <c r="AH708" s="108"/>
       <c r="AI708" s="33"/>
     </row>
-    <row r="709" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="709" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L709" s="85"/>
       <c r="M709" s="108"/>
       <c r="N709" s="45"/>
@@ -31768,7 +31758,7 @@
       <c r="AH709" s="108"/>
       <c r="AI709" s="33"/>
     </row>
-    <row r="710" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="710" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L710" s="85"/>
       <c r="M710" s="108"/>
       <c r="N710" s="45"/>
@@ -31794,7 +31784,7 @@
       <c r="AH710" s="108"/>
       <c r="AI710" s="33"/>
     </row>
-    <row r="711" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="711" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L711" s="85"/>
       <c r="M711" s="108"/>
       <c r="N711" s="45"/>
@@ -31820,7 +31810,7 @@
       <c r="AH711" s="108"/>
       <c r="AI711" s="33"/>
     </row>
-    <row r="712" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="712" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L712" s="85"/>
       <c r="M712" s="108"/>
       <c r="N712" s="45"/>
@@ -31846,7 +31836,7 @@
       <c r="AH712" s="108"/>
       <c r="AI712" s="33"/>
     </row>
-    <row r="713" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="713" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L713" s="85"/>
       <c r="M713" s="108"/>
       <c r="N713" s="45"/>
@@ -31872,7 +31862,7 @@
       <c r="AH713" s="108"/>
       <c r="AI713" s="33"/>
     </row>
-    <row r="714" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="714" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L714" s="85"/>
       <c r="M714" s="108"/>
       <c r="N714" s="45"/>
@@ -31898,7 +31888,7 @@
       <c r="AH714" s="108"/>
       <c r="AI714" s="33"/>
     </row>
-    <row r="715" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="715" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L715" s="85"/>
       <c r="M715" s="108"/>
       <c r="N715" s="45"/>
@@ -31924,7 +31914,7 @@
       <c r="AH715" s="108"/>
       <c r="AI715" s="33"/>
     </row>
-    <row r="716" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="716" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L716" s="85"/>
       <c r="M716" s="108"/>
       <c r="N716" s="45"/>
@@ -31950,7 +31940,7 @@
       <c r="AH716" s="108"/>
       <c r="AI716" s="33"/>
     </row>
-    <row r="717" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="717" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L717" s="85"/>
       <c r="M717" s="108"/>
       <c r="N717" s="45"/>
@@ -31976,7 +31966,7 @@
       <c r="AH717" s="108"/>
       <c r="AI717" s="33"/>
     </row>
-    <row r="718" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="718" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L718" s="85"/>
       <c r="M718" s="108"/>
       <c r="N718" s="45"/>
@@ -32002,7 +31992,7 @@
       <c r="AH718" s="108"/>
       <c r="AI718" s="33"/>
     </row>
-    <row r="719" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="719" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L719" s="85"/>
       <c r="M719" s="108"/>
       <c r="N719" s="45"/>
@@ -32028,7 +32018,7 @@
       <c r="AH719" s="108"/>
       <c r="AI719" s="33"/>
     </row>
-    <row r="720" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="720" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L720" s="85"/>
       <c r="M720" s="108"/>
       <c r="N720" s="45"/>
@@ -32054,7 +32044,7 @@
       <c r="AH720" s="108"/>
       <c r="AI720" s="33"/>
     </row>
-    <row r="721" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="721" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L721" s="85"/>
       <c r="M721" s="108"/>
       <c r="N721" s="45"/>
@@ -32080,7 +32070,7 @@
       <c r="AH721" s="108"/>
       <c r="AI721" s="33"/>
     </row>
-    <row r="722" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="722" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L722" s="85"/>
       <c r="M722" s="108"/>
       <c r="N722" s="45"/>
@@ -32106,7 +32096,7 @@
       <c r="AH722" s="108"/>
       <c r="AI722" s="33"/>
     </row>
-    <row r="723" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="723" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L723" s="85"/>
       <c r="M723" s="108"/>
       <c r="N723" s="45"/>
@@ -32132,7 +32122,7 @@
       <c r="AH723" s="108"/>
       <c r="AI723" s="33"/>
     </row>
-    <row r="724" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="724" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L724" s="85"/>
       <c r="M724" s="108"/>
       <c r="N724" s="45"/>
@@ -32158,7 +32148,7 @@
       <c r="AH724" s="108"/>
       <c r="AI724" s="33"/>
     </row>
-    <row r="725" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="725" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L725" s="85"/>
       <c r="M725" s="108"/>
       <c r="N725" s="45"/>
@@ -32184,7 +32174,7 @@
       <c r="AH725" s="108"/>
       <c r="AI725" s="33"/>
     </row>
-    <row r="726" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="726" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L726" s="85"/>
       <c r="M726" s="108"/>
       <c r="N726" s="45"/>
@@ -32210,7 +32200,7 @@
       <c r="AH726" s="108"/>
       <c r="AI726" s="33"/>
     </row>
-    <row r="727" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="727" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L727" s="88"/>
       <c r="M727" s="23"/>
       <c r="N727" s="89"/>
@@ -32236,7 +32226,7 @@
       <c r="AH727" s="23"/>
       <c r="AI727" s="41"/>
     </row>
-    <row r="728" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="728" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L728" s="39"/>
       <c r="M728" s="2"/>
       <c r="N728" s="17"/>
@@ -32262,7 +32252,7 @@
       <c r="AH728" s="2"/>
       <c r="AI728" s="106"/>
     </row>
-    <row r="729" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="729" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L729" s="39"/>
       <c r="M729" s="2"/>
       <c r="N729" s="17"/>
@@ -32288,7 +32278,7 @@
       <c r="AH729" s="2"/>
       <c r="AI729" s="106"/>
     </row>
-    <row r="730" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="730" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L730" s="39"/>
       <c r="M730" s="2"/>
       <c r="N730" s="17"/>
@@ -32314,7 +32304,7 @@
       <c r="AH730" s="2"/>
       <c r="AI730" s="106"/>
     </row>
-    <row r="731" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="731" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L731" s="39"/>
       <c r="M731" s="2"/>
       <c r="N731" s="17"/>
@@ -32340,7 +32330,7 @@
       <c r="AH731" s="2"/>
       <c r="AI731" s="106"/>
     </row>
-    <row r="732" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="732" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L732" s="39"/>
       <c r="M732" s="2"/>
       <c r="N732" s="17"/>
@@ -32366,7 +32356,7 @@
       <c r="AH732" s="2"/>
       <c r="AI732" s="106"/>
     </row>
-    <row r="733" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="733" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L733" s="39"/>
       <c r="M733" s="2"/>
       <c r="N733" s="17"/>
@@ -32392,7 +32382,7 @@
       <c r="AH733" s="2"/>
       <c r="AI733" s="106"/>
     </row>
-    <row r="734" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="734" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L734" s="39"/>
       <c r="M734" s="2"/>
       <c r="N734" s="17"/>
@@ -32418,7 +32408,7 @@
       <c r="AH734" s="2"/>
       <c r="AI734" s="106"/>
     </row>
-    <row r="735" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="735" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L735" s="39"/>
       <c r="M735" s="2"/>
       <c r="N735" s="17"/>
@@ -32444,7 +32434,7 @@
       <c r="AH735" s="2"/>
       <c r="AI735" s="106"/>
     </row>
-    <row r="736" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="736" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L736" s="39"/>
       <c r="M736" s="2"/>
       <c r="N736" s="17"/>
@@ -32470,7 +32460,7 @@
       <c r="AH736" s="2"/>
       <c r="AI736" s="106"/>
     </row>
-    <row r="737" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="737" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L737" s="39"/>
       <c r="M737" s="2"/>
       <c r="N737" s="17"/>
@@ -32496,7 +32486,7 @@
       <c r="AH737" s="2"/>
       <c r="AI737" s="106"/>
     </row>
-    <row r="738" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="738" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L738" s="39"/>
       <c r="M738" s="2"/>
       <c r="N738" s="17"/>
@@ -32522,7 +32512,7 @@
       <c r="AH738" s="2"/>
       <c r="AI738" s="106"/>
     </row>
-    <row r="739" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="739" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L739" s="39"/>
       <c r="M739" s="2"/>
       <c r="N739" s="17"/>
@@ -32548,7 +32538,7 @@
       <c r="AH739" s="2"/>
       <c r="AI739" s="106"/>
     </row>
-    <row r="740" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="740" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L740" s="39"/>
       <c r="M740" s="2"/>
       <c r="N740" s="17"/>
@@ -32574,7 +32564,7 @@
       <c r="AH740" s="2"/>
       <c r="AI740" s="106"/>
     </row>
-    <row r="741" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="741" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L741" s="39"/>
       <c r="M741" s="2"/>
       <c r="N741" s="17"/>
@@ -32600,7 +32590,7 @@
       <c r="AH741" s="2"/>
       <c r="AI741" s="106"/>
     </row>
-    <row r="742" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="742" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L742" s="39"/>
       <c r="M742" s="2"/>
       <c r="N742" s="17"/>
@@ -32626,7 +32616,7 @@
       <c r="AH742" s="2"/>
       <c r="AI742" s="106"/>
     </row>
-    <row r="743" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="743" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L743" s="39"/>
       <c r="M743" s="2"/>
       <c r="N743" s="17"/>
@@ -32652,7 +32642,7 @@
       <c r="AH743" s="2"/>
       <c r="AI743" s="106"/>
     </row>
-    <row r="744" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="744" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L744" s="39"/>
       <c r="M744" s="2"/>
       <c r="N744" s="17"/>
@@ -32678,7 +32668,7 @@
       <c r="AH744" s="2"/>
       <c r="AI744" s="106"/>
     </row>
-    <row r="745" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="745" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L745" s="39"/>
       <c r="M745" s="2"/>
       <c r="N745" s="17"/>
@@ -32704,7 +32694,7 @@
       <c r="AH745" s="2"/>
       <c r="AI745" s="106"/>
     </row>
-    <row r="746" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="746" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L746" s="39"/>
       <c r="M746" s="2"/>
       <c r="N746" s="17"/>
@@ -32730,7 +32720,7 @@
       <c r="AH746" s="2"/>
       <c r="AI746" s="106"/>
     </row>
-    <row r="747" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="747" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L747" s="39"/>
       <c r="M747" s="2"/>
       <c r="N747" s="17"/>
@@ -32756,7 +32746,7 @@
       <c r="AH747" s="2"/>
       <c r="AI747" s="106"/>
     </row>
-    <row r="748" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="748" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L748" s="39"/>
       <c r="M748" s="2"/>
       <c r="N748" s="17"/>
@@ -32782,7 +32772,7 @@
       <c r="AH748" s="2"/>
       <c r="AI748" s="106"/>
     </row>
-    <row r="749" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="749" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L749" s="39"/>
       <c r="M749" s="2"/>
       <c r="N749" s="17"/>
@@ -32808,7 +32798,7 @@
       <c r="AH749" s="2"/>
       <c r="AI749" s="106"/>
     </row>
-    <row r="750" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="750" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L750" s="39"/>
       <c r="M750" s="2"/>
       <c r="N750" s="17"/>
@@ -32834,7 +32824,7 @@
       <c r="AH750" s="2"/>
       <c r="AI750" s="106"/>
     </row>
-    <row r="751" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="751" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L751" s="39"/>
       <c r="M751" s="2"/>
       <c r="N751" s="17"/>
@@ -32860,7 +32850,7 @@
       <c r="AH751" s="2"/>
       <c r="AI751" s="106"/>
     </row>
-    <row r="752" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="752" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L752" s="39"/>
       <c r="M752" s="2"/>
       <c r="N752" s="17"/>
@@ -32886,7 +32876,7 @@
       <c r="AH752" s="2"/>
       <c r="AI752" s="106"/>
     </row>
-    <row r="753" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="753" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L753" s="39"/>
       <c r="M753" s="2"/>
       <c r="N753" s="17"/>
@@ -32912,7 +32902,7 @@
       <c r="AH753" s="2"/>
       <c r="AI753" s="106"/>
     </row>
-    <row r="754" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="754" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L754" s="39"/>
       <c r="M754" s="2"/>
       <c r="N754" s="17"/>
@@ -32938,7 +32928,7 @@
       <c r="AH754" s="2"/>
       <c r="AI754" s="106"/>
     </row>
-    <row r="755" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="755" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L755" s="39"/>
       <c r="M755" s="2"/>
       <c r="N755" s="17"/>
@@ -32964,7 +32954,7 @@
       <c r="AH755" s="2"/>
       <c r="AI755" s="106"/>
     </row>
-    <row r="756" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="756" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L756" s="39"/>
       <c r="M756" s="2"/>
       <c r="N756" s="17"/>
@@ -32990,7 +32980,7 @@
       <c r="AH756" s="2"/>
       <c r="AI756" s="106"/>
     </row>
-    <row r="757" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="757" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L757" s="39"/>
       <c r="M757" s="2"/>
       <c r="N757" s="17"/>
@@ -33016,7 +33006,7 @@
       <c r="AH757" s="2"/>
       <c r="AI757" s="106"/>
     </row>
-    <row r="758" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="758" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L758" s="39"/>
       <c r="M758" s="2"/>
       <c r="N758" s="17"/>
@@ -33042,7 +33032,7 @@
       <c r="AH758" s="2"/>
       <c r="AI758" s="106"/>
     </row>
-    <row r="759" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="759" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L759" s="39"/>
       <c r="M759" s="2"/>
       <c r="N759" s="17"/>
@@ -33068,7 +33058,7 @@
       <c r="AH759" s="2"/>
       <c r="AI759" s="106"/>
     </row>
-    <row r="760" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="760" spans="12:35" x14ac:dyDescent="0.25">
       <c r="L760" s="39"/>
       <c r="M760" s="2"/>
       <c r="N760" s="17"/>
@@ -33094,7 +33084,7 @@
       <c r="AH760" s="2"/>
       <c r="AI760" s="106"/>
     </row>
-    <row r="761" spans="12:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="761" spans="12:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L761" s="40"/>
       <c r="M761" s="6"/>
       <c r="N761" s="18"/>
@@ -33122,33 +33112,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="AG559:AI559"/>
-    <mergeCell ref="L486:AI486"/>
-    <mergeCell ref="L487:N487"/>
-    <mergeCell ref="O487:Q487"/>
-    <mergeCell ref="R487:T487"/>
-    <mergeCell ref="AA487:AC487"/>
-    <mergeCell ref="AD487:AF487"/>
-    <mergeCell ref="AG487:AI487"/>
-    <mergeCell ref="L662:AI662"/>
-    <mergeCell ref="L663:N663"/>
-    <mergeCell ref="O663:Q663"/>
-    <mergeCell ref="R663:T663"/>
-    <mergeCell ref="U663:W663"/>
-    <mergeCell ref="X663:Z663"/>
-    <mergeCell ref="AA663:AC663"/>
-    <mergeCell ref="AD663:AF663"/>
-    <mergeCell ref="AG663:AI663"/>
     <mergeCell ref="AK559:AL559"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C2:G2"/>
@@ -33165,6 +33128,33 @@
     <mergeCell ref="X559:Z559"/>
     <mergeCell ref="AA559:AC559"/>
     <mergeCell ref="AD559:AF559"/>
+    <mergeCell ref="L662:AI662"/>
+    <mergeCell ref="L663:N663"/>
+    <mergeCell ref="O663:Q663"/>
+    <mergeCell ref="R663:T663"/>
+    <mergeCell ref="U663:W663"/>
+    <mergeCell ref="X663:Z663"/>
+    <mergeCell ref="AA663:AC663"/>
+    <mergeCell ref="AD663:AF663"/>
+    <mergeCell ref="AG663:AI663"/>
+    <mergeCell ref="AG559:AI559"/>
+    <mergeCell ref="L486:AI486"/>
+    <mergeCell ref="L487:N487"/>
+    <mergeCell ref="O487:Q487"/>
+    <mergeCell ref="R487:T487"/>
+    <mergeCell ref="AA487:AC487"/>
+    <mergeCell ref="AD487:AF487"/>
+    <mergeCell ref="AG487:AI487"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33179,10 +33169,10 @@
       <selection activeCell="D3" sqref="D3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="183" t="s">
@@ -33193,18 +33183,18 @@
       <c r="G2" s="184"/>
       <c r="H2" s="185"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
       <c r="H3" s="228"/>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="135" t="s">
         <v>2</v>
       </c>
@@ -33227,7 +33217,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="179" t="s">
         <v>7</v>
       </c>
@@ -33250,7 +33240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="180"/>
       <c r="C6" s="102">
         <v>2</v>
@@ -33271,7 +33261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="180"/>
       <c r="C7" s="102">
         <v>3</v>
@@ -33292,7 +33282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="180"/>
       <c r="C8" s="102">
         <v>4</v>
@@ -33313,7 +33303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="181"/>
       <c r="C9" s="105">
         <v>5</v>
@@ -33334,7 +33324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="179" t="s">
         <v>3</v>
       </c>
@@ -33357,7 +33347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="180"/>
       <c r="C11" s="102">
         <v>7</v>
@@ -33378,7 +33368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="180"/>
       <c r="C12" s="102">
         <v>8</v>
@@ -33399,7 +33389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="180"/>
       <c r="C13" s="102">
         <v>9</v>
@@ -33420,7 +33410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="181"/>
       <c r="C14" s="105">
         <v>10</v>
@@ -33441,7 +33431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="179" t="s">
         <v>4</v>
       </c>
@@ -33464,7 +33454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="180"/>
       <c r="C16" s="102">
         <v>12</v>
@@ -33485,7 +33475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="180"/>
       <c r="C17" s="102">
         <v>13</v>
@@ -33506,7 +33496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="180"/>
       <c r="C18" s="102">
         <v>14</v>
@@ -33527,7 +33517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="181"/>
       <c r="C19" s="105">
         <v>15</v>
@@ -33548,7 +33538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="179" t="s">
         <v>5</v>
       </c>
@@ -33571,7 +33561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="180"/>
       <c r="C21" s="102">
         <v>17</v>
@@ -33592,7 +33582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="180"/>
       <c r="C22" s="102">
         <v>18</v>
@@ -33613,7 +33603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="180"/>
       <c r="C23" s="102">
         <v>19</v>
@@ -33634,7 +33624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="181"/>
       <c r="C24" s="105">
         <v>20</v>
@@ -33655,7 +33645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="179" t="s">
         <v>37</v>
       </c>
@@ -33678,7 +33668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="180"/>
       <c r="C26" s="110">
         <v>22</v>
@@ -33691,7 +33681,7 @@
       <c r="G26" s="46"/>
       <c r="H26" s="121"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="180"/>
       <c r="C27" s="102">
         <v>23</v>
@@ -33712,7 +33702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="180"/>
       <c r="C28" s="102">
         <v>24</v>
@@ -33733,7 +33723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="181"/>
       <c r="C29" s="105">
         <v>25</v>
@@ -33754,7 +33744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="179" t="s">
         <v>8</v>
       </c>
@@ -33777,7 +33767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="180"/>
       <c r="C31" s="102">
         <v>27</v>
@@ -33798,7 +33788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="180"/>
       <c r="C32" s="102">
         <v>28</v>
@@ -33819,7 +33809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="180"/>
       <c r="C33" s="102">
         <v>29</v>
@@ -33838,7 +33828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="181"/>
       <c r="C34" s="105">
         <v>30</v>
@@ -33857,7 +33847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="179" t="s">
         <v>9</v>
       </c>
@@ -33878,7 +33868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="180"/>
       <c r="C36" s="102">
         <v>32</v>
@@ -33897,7 +33887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="180"/>
       <c r="C37" s="102">
         <v>33</v>
@@ -33916,7 +33906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="180"/>
       <c r="C38" s="102">
         <v>34</v>
@@ -33935,7 +33925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="181"/>
       <c r="C39" s="105">
         <v>35</v>
@@ -33954,7 +33944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="179" t="s">
         <v>10</v>
       </c>
@@ -33975,7 +33965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="180"/>
       <c r="C41" s="102">
         <v>37</v>
@@ -33994,7 +33984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="180"/>
       <c r="C42" s="102">
         <v>38</v>
@@ -34013,7 +34003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="180"/>
       <c r="C43" s="102">
         <v>39</v>
@@ -34032,7 +34022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="182"/>
       <c r="C44" s="103">
         <v>40</v>
@@ -34076,10 +34066,10 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="183" t="s">
@@ -34088,16 +34078,16 @@
       <c r="E2" s="184"/>
       <c r="F2" s="185"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="195"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="229"/>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="143" t="s">
         <v>2</v>
       </c>
@@ -34114,8 +34104,8 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="221" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="218" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="26">
@@ -34131,8 +34121,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="222"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="219"/>
       <c r="C6" s="24">
         <v>2</v>
       </c>
@@ -34146,8 +34136,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="222"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="219"/>
       <c r="C7" s="24">
         <v>3</v>
       </c>
@@ -34161,8 +34151,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="222"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="219"/>
       <c r="C8" s="24">
         <v>4</v>
       </c>
@@ -34176,8 +34166,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="224"/>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="221"/>
       <c r="C9" s="25">
         <v>5</v>
       </c>
@@ -34191,8 +34181,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="221" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="218" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="26">
@@ -34208,8 +34198,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="222"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="219"/>
       <c r="C11" s="24">
         <v>7</v>
       </c>
@@ -34223,8 +34213,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="222"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="219"/>
       <c r="C12" s="24">
         <v>8</v>
       </c>
@@ -34238,8 +34228,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="222"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="219"/>
       <c r="C13" s="24">
         <v>9</v>
       </c>
@@ -34253,8 +34243,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="224"/>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="221"/>
       <c r="C14" s="25">
         <v>10</v>
       </c>
@@ -34268,8 +34258,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="221" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="218" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="26">
@@ -34285,8 +34275,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="222"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="219"/>
       <c r="C16" s="24">
         <v>12</v>
       </c>
@@ -34300,8 +34290,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="222"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="219"/>
       <c r="C17" s="24">
         <v>13</v>
       </c>
@@ -34315,8 +34305,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="222"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="219"/>
       <c r="C18" s="24">
         <v>14</v>
       </c>
@@ -34330,8 +34320,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="224"/>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="221"/>
       <c r="C19" s="25">
         <v>15</v>
       </c>
@@ -34345,8 +34335,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="221" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="218" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="26">
@@ -34362,8 +34352,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="222"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="219"/>
       <c r="C21" s="24">
         <v>17</v>
       </c>
@@ -34377,8 +34367,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="222"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="219"/>
       <c r="C22" s="24">
         <v>18</v>
       </c>
@@ -34392,8 +34382,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="222"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="219"/>
       <c r="C23" s="24">
         <v>19</v>
       </c>
@@ -34407,8 +34397,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="224"/>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="221"/>
       <c r="C24" s="25">
         <v>20</v>
       </c>
@@ -34422,8 +34412,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="221" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="218" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="26">
@@ -34439,8 +34429,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="222"/>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="219"/>
       <c r="C26" s="28">
         <v>22</v>
       </c>
@@ -34450,8 +34440,8 @@
       <c r="E26" s="21"/>
       <c r="F26" s="117"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="222"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="219"/>
       <c r="C27" s="24">
         <v>23</v>
       </c>
@@ -34465,8 +34455,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="222"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="219"/>
       <c r="C28" s="24">
         <v>24</v>
       </c>
@@ -34480,8 +34470,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="224"/>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="221"/>
       <c r="C29" s="25">
         <v>25</v>
       </c>
@@ -34495,8 +34485,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="221" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="218" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="26">
@@ -34512,8 +34502,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="222"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="219"/>
       <c r="C31" s="24">
         <v>27</v>
       </c>
@@ -34527,8 +34517,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="222"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="219"/>
       <c r="C32" s="24">
         <v>28</v>
       </c>
@@ -34542,8 +34532,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="222"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="219"/>
       <c r="C33" s="24">
         <v>29</v>
       </c>
@@ -34557,8 +34547,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="224"/>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="221"/>
       <c r="C34" s="25">
         <v>30</v>
       </c>
@@ -34572,8 +34562,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="221" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="218" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="26">
@@ -34589,8 +34579,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="222"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="219"/>
       <c r="C36" s="24">
         <v>32</v>
       </c>
@@ -34604,8 +34594,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="222"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="219"/>
       <c r="C37" s="24">
         <v>33</v>
       </c>
@@ -34619,8 +34609,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="222"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="219"/>
       <c r="C38" s="24">
         <v>34</v>
       </c>
@@ -34634,8 +34624,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="224"/>
+    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="221"/>
       <c r="C39" s="25">
         <v>35</v>
       </c>
@@ -34649,8 +34639,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="221" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="218" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="26">
@@ -34666,8 +34656,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="222"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="219"/>
       <c r="C41" s="24">
         <v>37</v>
       </c>
@@ -34681,8 +34671,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="222"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="219"/>
       <c r="C42" s="24">
         <v>38</v>
       </c>
@@ -34696,8 +34686,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="222"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="219"/>
       <c r="C43" s="24">
         <v>39</v>
       </c>
@@ -34711,8 +34701,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="223"/>
+    <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="220"/>
       <c r="C44" s="27">
         <v>40</v>
       </c>
